--- a/mobile-nav.xlsx
+++ b/mobile-nav.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+  <si>
+    <t>表格 1</t>
+  </si>
   <si>
     <t>一级分类</t>
   </si>
@@ -271,9 +274,6 @@
     <t>Curve &amp; Plus</t>
   </si>
   <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>By Vibe</t>
   </si>
   <si>
@@ -581,6 +581,57 @@
   </si>
   <si>
     <t>kitchen-dining</t>
+  </si>
+  <si>
+    <t>Office &amp; School Supplies</t>
+  </si>
+  <si>
+    <t>office-school-supplies</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Custom Your Brand</t>
+  </si>
+  <si>
+    <t>build-your-brand</t>
+  </si>
+  <si>
+    <t>Packaging &amp; Shipping Supplies</t>
+  </si>
+  <si>
+    <t>packaging-supplies</t>
+  </si>
+  <si>
+    <t>PETS</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>Clothing &amp; Accessories</t>
+  </si>
+  <si>
+    <t>pet-apparel-accessories</t>
+  </si>
+  <si>
+    <t>Leashes, Collars &amp; Harnesses</t>
+  </si>
+  <si>
+    <t>pet-leashes-collars-harnesses</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>pet-toys</t>
+  </si>
+  <si>
+    <t>Coming Soon: Bowls &amp; Feeders</t>
+  </si>
+  <si>
+    <t>Coming Soon: Grooming</t>
   </si>
 </sst>
 </file>
@@ -612,7 +663,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,18 +672,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -644,84 +689,102 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -740,17 +803,23 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -758,41 +827,35 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,9 +874,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="fff2f3f5"/>
-      <rgbColor rgb="ffdee0e3"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1875,1962 +1938,7648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A2:F831"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="19.55" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="D2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="F2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s" s="8">
+    </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="11">
-        <v>8</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s" s="11">
+      <c r="C4" s="11"/>
+      <c r="D4" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s" s="11">
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s" s="11">
+      <c r="C5" s="11"/>
+      <c r="D5" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s" s="11">
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s" s="8">
+      <c r="C6" s="11"/>
+      <c r="D6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="34.35" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" t="s" s="11">
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="D7" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s" s="11">
+      <c r="C7" s="11"/>
+      <c r="D7" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="34.35" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="34.35" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" t="s" s="11">
+      <c r="D8" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D8" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s" s="11">
+    </row>
+    <row r="9" ht="34.35" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" t="s" s="11">
+      <c r="D9" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="D9" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s" s="11">
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="34.35" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" t="s" s="11">
+      <c r="D10" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="D10" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s" s="11">
+    </row>
+    <row r="11" ht="34.35" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" t="s" s="11">
+      <c r="D11" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="D11" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s" s="11">
+    </row>
+    <row r="12" ht="16.35" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" t="s" s="11">
+      <c r="D12" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="D12" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s" s="11">
+    </row>
+    <row r="13" ht="16.35" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="D13" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="34.35" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" t="s" s="11">
+    </row>
+    <row r="14" ht="16.35" customHeight="1">
+      <c r="A14" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s" s="8">
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="34.35" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s" s="8">
+      <c r="C15" s="11"/>
+      <c r="D15" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" t="s" s="8">
+    </row>
+    <row r="16" ht="16.35" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s" s="8">
+      <c r="C16" s="11"/>
+      <c r="D16" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="16.35" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
-      <c r="C17" t="s" s="8">
+      <c r="D17" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="D17" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s" s="8">
+    </row>
+    <row r="18" ht="16.35" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
-      <c r="C18" t="s" s="8">
+      <c r="D18" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="D18" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s" s="8">
+    </row>
+    <row r="19" ht="16.35" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" t="s" s="8">
+      <c r="D19" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7"/>
-      <c r="C20" t="s" s="11">
+    </row>
+    <row r="20" ht="16.35" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s" s="14">
         <v>39</v>
       </c>
-      <c r="D20" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s" s="11">
+      <c r="C20" s="11"/>
+      <c r="D20" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="16.35" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15"/>
+      <c r="C21" t="s" s="13">
         <v>40</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7"/>
-      <c r="C21" t="s" s="11">
+      <c r="D21" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="D21" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s" s="11">
+    </row>
+    <row r="22" ht="16.35" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" t="s" s="13">
         <v>42</v>
       </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="34.35" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7"/>
-      <c r="C22" t="s" s="11">
+      <c r="D22" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="13">
         <v>43</v>
       </c>
-      <c r="D22" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s" s="11">
+    </row>
+    <row r="23" ht="34.35" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7"/>
-      <c r="C23" t="s" s="11">
+      <c r="D23" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="D23" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s" s="11">
+    </row>
+    <row r="24" ht="16.35" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" t="s" s="8">
+      <c r="D24" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7"/>
-      <c r="C25" t="s" s="8">
+    </row>
+    <row r="25" ht="16.35" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="D25" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s" s="11">
+      <c r="C25" s="11"/>
+      <c r="D25" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="16.35" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15"/>
+      <c r="C26" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7"/>
-      <c r="C26" t="s" s="8">
+      <c r="D26" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="D26" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s" s="11">
+    </row>
+    <row r="27" ht="16.35" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
-      <c r="C27" t="s" s="8">
+      <c r="D27" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="D27" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s" s="11">
+    </row>
+    <row r="28" ht="16.35" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" ht="34.35" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" t="s" s="8">
+      <c r="D28" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
-      <c r="C29" t="s" s="8">
+    </row>
+    <row r="29" ht="34.35" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="D29" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s" s="8">
+      <c r="C29" s="11"/>
+      <c r="D29" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="16.35" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
-      <c r="C30" t="s" s="8">
+      <c r="D30" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="D30" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s" s="8">
+    </row>
+    <row r="31" ht="16.35" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" t="s" s="8">
+      <c r="D31" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
-      <c r="C32" t="s" s="8">
+    </row>
+    <row r="32" ht="16.35" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" t="s" s="14">
         <v>60</v>
       </c>
-      <c r="D32" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s" s="8">
+      <c r="C32" s="11"/>
+      <c r="D32" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="16.35" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="15"/>
+      <c r="C33" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7"/>
-      <c r="C33" t="s" s="8">
+      <c r="D33" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="D33" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s" s="8">
+    </row>
+    <row r="34" ht="16.35" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="15"/>
+      <c r="C34" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7"/>
-      <c r="C34" t="s" s="8">
+      <c r="D34" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="D34" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s" s="8">
+    </row>
+    <row r="35" ht="16.35" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="15"/>
+      <c r="C35" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" t="s" s="8">
+      <c r="D35" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7"/>
-      <c r="C36" t="s" s="8">
+    </row>
+    <row r="36" ht="16.35" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" t="s" s="14">
         <v>67</v>
       </c>
-      <c r="D36" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s" s="8">
+      <c r="C36" s="11"/>
+      <c r="D36" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="16.35" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" t="s" s="12">
         <v>68</v>
       </c>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" ht="34.35" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7"/>
-      <c r="C37" t="s" s="8">
+      <c r="D37" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="D37" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s" s="8">
+    </row>
+    <row r="38" ht="34.35" customHeight="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="15"/>
+      <c r="C38" t="s" s="12">
         <v>70</v>
       </c>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7"/>
-      <c r="C38" t="s" s="8">
+      <c r="D38" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="D38" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s" s="8">
+    </row>
+    <row r="39" ht="16.35" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="15"/>
+      <c r="C39" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7"/>
-      <c r="C39" t="s" s="8">
+      <c r="D39" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="D39" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s" s="8">
+    </row>
+    <row r="40" ht="16.35" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="15"/>
+      <c r="C40" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" ht="34.35" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="7"/>
-      <c r="C40" t="s" s="8">
+      <c r="D40" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="D40" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s" s="8">
+    </row>
+    <row r="41" ht="34.35" customHeight="1">
+      <c r="A41" s="9"/>
+      <c r="B41" s="15"/>
+      <c r="C41" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" t="s" s="8">
+      <c r="D41" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" t="s" s="8">
+    </row>
+    <row r="42" ht="16.35" customHeight="1">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s" s="14">
         <v>78</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s" s="8">
+      <c r="C42" s="11"/>
+      <c r="D42" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" t="s" s="8">
+    </row>
+    <row r="43" ht="16.35" customHeight="1">
+      <c r="A43" s="9"/>
+      <c r="B43" t="s" s="14">
         <v>79</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s" s="8">
+      <c r="C43" s="11"/>
+      <c r="D43" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" t="s" s="8">
+    </row>
+    <row r="44" ht="16.35" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s" s="14">
         <v>80</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s" s="8">
+      <c r="C44" s="11"/>
+      <c r="D44" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" t="s" s="8">
+    </row>
+    <row r="45" ht="16.35" customHeight="1">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s" s="14">
         <v>81</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s" s="8">
+      <c r="C45" s="11"/>
+      <c r="D45" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" t="s" s="8">
+    </row>
+    <row r="46" ht="16.35" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="B46" t="s" s="14">
         <v>82</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s" s="8">
+      <c r="C46" s="11"/>
+      <c r="D46" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" t="s" s="8">
+    </row>
+    <row r="47" ht="16.35" customHeight="1">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s" s="14">
         <v>83</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s" s="8">
+      <c r="C47" s="11"/>
+      <c r="D47" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" t="s" s="8">
+    </row>
+    <row r="48" ht="16.35" customHeight="1">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s" s="14">
         <v>84</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s" s="8">
+      <c r="C48" s="11"/>
+      <c r="D48" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="12">
         <v>84</v>
       </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" t="s" s="8">
+    </row>
+    <row r="49" ht="16.35" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s" s="14">
         <v>85</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s" s="8">
+      <c r="C49" s="11"/>
+      <c r="D49" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="13"/>
+    </row>
+    <row r="50" ht="16.35" customHeight="1">
+      <c r="A50" s="9"/>
       <c r="B50" t="s" s="14">
         <v>86</v>
       </c>
-      <c r="C50" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s" s="8">
+      <c r="C50" s="11"/>
+      <c r="D50" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" ht="16.35" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s" s="14">
         <v>87</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" ht="34.35" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="7"/>
-      <c r="C52" t="s" s="8">
+      <c r="C51" s="11"/>
+      <c r="D51" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="16.35" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15"/>
+      <c r="C52" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="D52" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s" s="8">
+      <c r="D52" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s" s="12">
         <v>89</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="7"/>
-      <c r="C53" t="s" s="8">
+    </row>
+    <row r="53" ht="34.35" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15"/>
+      <c r="C53" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="D53" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s" s="8">
+      <c r="D53" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="7"/>
-      <c r="C54" t="s" s="8">
+    </row>
+    <row r="54" ht="16.35" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="15"/>
+      <c r="C54" t="s" s="12">
         <v>92</v>
       </c>
-      <c r="D54" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s" s="8">
+      <c r="D54" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="7"/>
-      <c r="C55" t="s" s="8">
+    </row>
+    <row r="55" ht="16.35" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="15"/>
+      <c r="C55" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="D55" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s" s="8">
+      <c r="D55" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="7"/>
-      <c r="C56" t="s" s="8">
+    </row>
+    <row r="56" ht="16.35" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="15"/>
+      <c r="C56" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="D56" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s" s="8">
+      <c r="D56" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" t="s" s="8">
+    </row>
+    <row r="57" ht="16.35" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s" s="14">
         <v>98</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="7"/>
-      <c r="C58" t="s" s="8">
+      <c r="C57" s="11"/>
+      <c r="D57" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" ht="16.35" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="15"/>
+      <c r="C58" t="s" s="12">
         <v>99</v>
       </c>
-      <c r="D58" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s" s="8">
+      <c r="D58" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="7"/>
-      <c r="C59" t="s" s="8">
+    </row>
+    <row r="59" ht="16.35" customHeight="1">
+      <c r="A59" s="9"/>
+      <c r="B59" s="15"/>
+      <c r="C59" t="s" s="12">
         <v>101</v>
       </c>
-      <c r="D59" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s" s="8">
+      <c r="D59" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s" s="12">
         <v>102</v>
       </c>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="7"/>
-      <c r="C60" t="s" s="8">
+    </row>
+    <row r="60" ht="16.35" customHeight="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="15"/>
+      <c r="C60" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="D60" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s" s="8">
+      <c r="D60" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s" s="12">
         <v>104</v>
       </c>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="7"/>
-      <c r="C61" t="s" s="8">
+    </row>
+    <row r="61" ht="16.35" customHeight="1">
+      <c r="A61" s="9"/>
+      <c r="B61" s="15"/>
+      <c r="C61" t="s" s="12">
         <v>105</v>
       </c>
-      <c r="D61" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s" s="8">
+      <c r="D61" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="7"/>
-      <c r="C62" t="s" s="8">
+    </row>
+    <row r="62" ht="16.35" customHeight="1">
+      <c r="A62" s="9"/>
+      <c r="B62" s="15"/>
+      <c r="C62" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="D62" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s" s="8">
+      <c r="D62" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s" s="12">
         <v>108</v>
       </c>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="7"/>
-      <c r="C63" t="s" s="8">
+    </row>
+    <row r="63" ht="16.35" customHeight="1">
+      <c r="A63" s="9"/>
+      <c r="B63" s="15"/>
+      <c r="C63" t="s" s="12">
         <v>109</v>
       </c>
-      <c r="D63" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s" s="8">
+      <c r="D63" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s" s="12">
         <v>110</v>
       </c>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" ht="34.35" customHeight="1">
-      <c r="A64" t="s" s="6">
+    </row>
+    <row r="64" ht="16.35" customHeight="1">
+      <c r="A64" t="s" s="16">
         <v>111</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G64" t="s" s="9">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s" s="8">
+      <c r="B64" s="15"/>
+      <c r="C64" s="11"/>
+      <c r="D64" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="16.35" customHeight="1">
+      <c r="A65" s="9"/>
+      <c r="B65" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s" s="12">
         <v>112</v>
       </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s" s="8">
+    </row>
+    <row r="66" ht="16.35" customHeight="1">
+      <c r="A66" s="9"/>
+      <c r="B66" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s" s="12">
         <v>113</v>
       </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s" s="8">
+    </row>
+    <row r="67" ht="34.35" customHeight="1">
+      <c r="A67" s="9"/>
+      <c r="B67" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s" s="12">
         <v>114</v>
       </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s" s="8">
+    </row>
+    <row r="68" ht="52.35" customHeight="1">
+      <c r="A68" s="9"/>
+      <c r="B68" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s" s="12">
         <v>115</v>
       </c>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" ht="34.35" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E69" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s" s="8">
+    </row>
+    <row r="69" ht="16.35" customHeight="1">
+      <c r="A69" s="9"/>
+      <c r="B69" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s" s="12">
         <v>116</v>
       </c>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s" s="8">
+    </row>
+    <row r="70" ht="34.35" customHeight="1">
+      <c r="A70" s="9"/>
+      <c r="B70" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s" s="12">
         <v>117</v>
       </c>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" ht="52.35" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s" s="8">
+    </row>
+    <row r="71" ht="34.35" customHeight="1">
+      <c r="A71" s="9"/>
+      <c r="B71" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s" s="8">
+    </row>
+    <row r="72" ht="34.35" customHeight="1">
+      <c r="A72" s="9"/>
+      <c r="B72" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" ht="34.35" customHeight="1">
-      <c r="A73" t="s" s="6">
+    </row>
+    <row r="73" ht="16.35" customHeight="1">
+      <c r="A73" t="s" s="16">
         <v>120</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s" s="11">
+      <c r="B73" s="15"/>
+      <c r="C73" s="11"/>
+      <c r="D73" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="34.35" customHeight="1">
+      <c r="A74" s="9"/>
+      <c r="B74" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s" s="13">
         <v>121</v>
       </c>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" t="s" s="8">
+    </row>
+    <row r="75" ht="16.35" customHeight="1">
+      <c r="A75" s="9"/>
+      <c r="B75" t="s" s="14">
         <v>122</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s" s="8">
+      <c r="C75" s="11"/>
+      <c r="D75" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" t="s" s="8">
+    </row>
+    <row r="76" ht="16.35" customHeight="1">
+      <c r="A76" s="9"/>
+      <c r="B76" t="s" s="14">
         <v>124</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s" s="8">
+      <c r="C76" s="11"/>
+      <c r="D76" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" t="s" s="8">
+    </row>
+    <row r="77" ht="16.35" customHeight="1">
+      <c r="A77" s="9"/>
+      <c r="B77" t="s" s="14">
         <v>126</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s" s="8">
+      <c r="C77" s="11"/>
+      <c r="D77" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" ht="34.35" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" t="s" s="8">
+    </row>
+    <row r="78" ht="16.35" customHeight="1">
+      <c r="A78" s="9"/>
+      <c r="B78" t="s" s="14">
         <v>128</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s" s="8">
+      <c r="C78" s="11"/>
+      <c r="D78" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" t="s" s="8">
+    </row>
+    <row r="79" ht="34.35" customHeight="1">
+      <c r="A79" s="9"/>
+      <c r="B79" t="s" s="14">
         <v>130</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s" s="8">
+      <c r="C79" s="11"/>
+      <c r="D79" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" s="13"/>
+    </row>
+    <row r="80" ht="16.35" customHeight="1">
+      <c r="A80" s="9"/>
       <c r="B80" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" t="s" s="8">
         <v>132</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="7"/>
-      <c r="C82" t="s" s="8">
+      <c r="C80" s="11"/>
+      <c r="D80" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" ht="52.35" customHeight="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="15"/>
+      <c r="C81" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="D82" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s" s="8">
+      <c r="D81" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="7"/>
-      <c r="C83" t="s" s="8">
+    </row>
+    <row r="82" ht="16.35" customHeight="1">
+      <c r="A82" s="9"/>
+      <c r="B82" s="15"/>
+      <c r="C82" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="D83" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s" s="8">
+      <c r="D82" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s" s="12">
         <v>136</v>
       </c>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="7"/>
-      <c r="C84" t="s" s="8">
+    </row>
+    <row r="83" ht="34.35" customHeight="1">
+      <c r="A83" s="9"/>
+      <c r="B83" s="15"/>
+      <c r="C83" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="D84" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s" s="8">
+      <c r="D83" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s" s="12">
         <v>138</v>
       </c>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="7"/>
-      <c r="C85" t="s" s="8">
+    </row>
+    <row r="84" ht="16.35" customHeight="1">
+      <c r="A84" s="9"/>
+      <c r="B84" s="15"/>
+      <c r="C84" t="s" s="12">
         <v>139</v>
       </c>
-      <c r="D85" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E85" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s" s="8">
+      <c r="D84" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s" s="12">
         <v>140</v>
       </c>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="7"/>
-      <c r="C86" t="s" s="8">
+    </row>
+    <row r="85" ht="16.35" customHeight="1">
+      <c r="A85" s="9"/>
+      <c r="B85" s="15"/>
+      <c r="C85" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="D86" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E86" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s" s="8">
+      <c r="D85" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="7"/>
-      <c r="C87" t="s" s="8">
+    </row>
+    <row r="86" ht="16.35" customHeight="1">
+      <c r="A86" s="9"/>
+      <c r="B86" s="15"/>
+      <c r="C86" t="s" s="12">
         <v>143</v>
       </c>
-      <c r="D87" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s" s="8">
+      <c r="D86" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="6">
+    </row>
+    <row r="87" ht="16.35" customHeight="1">
+      <c r="A87" t="s" s="16">
         <v>145</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G88" t="s" s="9">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" ht="34.35" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s" s="8">
+      <c r="B87" s="15"/>
+      <c r="C87" s="11"/>
+      <c r="D87" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" ht="34.35" customHeight="1">
+      <c r="A88" s="9"/>
+      <c r="B88" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" t="s" s="8">
+    </row>
+    <row r="89" ht="16.35" customHeight="1">
+      <c r="A89" s="9"/>
+      <c r="B89" t="s" s="14">
         <v>147</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s" s="8">
+      <c r="C89" s="11"/>
+      <c r="D89" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s" s="12">
         <v>148</v>
       </c>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" t="s" s="8">
+    </row>
+    <row r="90" ht="16.35" customHeight="1">
+      <c r="A90" s="9"/>
+      <c r="B90" t="s" s="14">
         <v>149</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s" s="8">
+      <c r="C90" s="11"/>
+      <c r="D90" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s" s="12">
         <v>150</v>
       </c>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" t="s" s="8">
+    </row>
+    <row r="91" ht="16.35" customHeight="1">
+      <c r="A91" s="9"/>
+      <c r="B91" t="s" s="14">
         <v>151</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s" s="8">
+      <c r="C91" s="11"/>
+      <c r="D91" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s" s="12">
         <v>152</v>
       </c>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" t="s" s="8">
+    </row>
+    <row r="92" ht="16.35" customHeight="1">
+      <c r="A92" s="9"/>
+      <c r="B92" t="s" s="14">
         <v>153</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s" s="8">
+      <c r="C92" s="11"/>
+      <c r="D92" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s" s="12">
         <v>154</v>
       </c>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" ht="34.35" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" t="s" s="8">
+    </row>
+    <row r="93" ht="16.35" customHeight="1">
+      <c r="A93" s="9"/>
+      <c r="B93" t="s" s="14">
         <v>155</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s" s="8">
+      <c r="C93" s="11"/>
+      <c r="D93" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s" s="12">
         <v>156</v>
       </c>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" ht="34.35" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" t="s" s="8">
+    </row>
+    <row r="94" ht="16.35" customHeight="1">
+      <c r="A94" s="9"/>
+      <c r="B94" t="s" s="14">
         <v>157</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E95" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s" s="8">
+      <c r="C94" s="11"/>
+      <c r="D94" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s" s="12">
         <v>158</v>
       </c>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="6">
+    </row>
+    <row r="95" ht="16.35" customHeight="1">
+      <c r="A95" t="s" s="16">
         <v>159</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G96" t="s" s="9">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s" s="8">
+      <c r="B95" s="15"/>
+      <c r="C95" s="11"/>
+      <c r="D95" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" ht="16.35" customHeight="1">
+      <c r="A96" s="9"/>
+      <c r="B96" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s" s="12">
         <v>160</v>
       </c>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" t="s" s="8">
+    </row>
+    <row r="97" ht="16.35" customHeight="1">
+      <c r="A97" s="9"/>
+      <c r="B97" t="s" s="14">
         <v>161</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E98" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G98" s="12"/>
+      <c r="C97" s="11"/>
+      <c r="D97" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" ht="16.35" customHeight="1">
+      <c r="A98" s="9"/>
+      <c r="B98" s="15"/>
+      <c r="C98" t="s" s="12">
+        <v>162</v>
+      </c>
+      <c r="D98" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s" s="12">
+        <v>163</v>
+      </c>
     </row>
     <row r="99" ht="34.35" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="7"/>
-      <c r="C99" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="D99" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E99" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="7"/>
-      <c r="C100" t="s" s="8">
+      <c r="A99" s="9"/>
+      <c r="B99" s="15"/>
+      <c r="C99" t="s" s="12">
         <v>164</v>
       </c>
-      <c r="D100" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E100" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F100" t="s" s="8">
+      <c r="D99" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s" s="12">
         <v>165</v>
       </c>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" ht="52.35" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="7"/>
-      <c r="C101" t="s" s="8">
+    </row>
+    <row r="100" ht="16.35" customHeight="1">
+      <c r="A100" s="9"/>
+      <c r="B100" s="15"/>
+      <c r="C100" t="s" s="12">
         <v>166</v>
       </c>
-      <c r="D101" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E101" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s" s="8">
+      <c r="D100" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s" s="12">
         <v>167</v>
       </c>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="7"/>
-      <c r="C102" t="s" s="8">
+    </row>
+    <row r="101" ht="16.35" customHeight="1">
+      <c r="A101" s="9"/>
+      <c r="B101" s="15"/>
+      <c r="C101" t="s" s="12">
         <v>168</v>
       </c>
-      <c r="D102" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s" s="8">
+      <c r="D101" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s" s="12">
         <v>169</v>
       </c>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" ht="34.35" customHeight="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="7"/>
-      <c r="C103" t="s" s="8">
+    </row>
+    <row r="102" ht="16.35" customHeight="1">
+      <c r="A102" s="9"/>
+      <c r="B102" s="15"/>
+      <c r="C102" t="s" s="12">
         <v>170</v>
       </c>
-      <c r="D103" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E103" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s" s="8">
+      <c r="D102" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s" s="12">
         <v>171</v>
       </c>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" s="10"/>
-      <c r="B104" s="7"/>
-      <c r="C104" t="s" s="8">
+    </row>
+    <row r="103" ht="16.35" customHeight="1">
+      <c r="A103" s="9"/>
+      <c r="B103" s="15"/>
+      <c r="C103" t="s" s="12">
         <v>172</v>
       </c>
-      <c r="D104" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E104" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s" s="8">
+      <c r="D103" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s" s="12">
         <v>173</v>
       </c>
-      <c r="G104" s="12"/>
+    </row>
+    <row r="104" ht="34.35" customHeight="1">
+      <c r="A104" s="9"/>
+      <c r="B104" t="s" s="14">
+        <v>174</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s" s="12">
+        <v>175</v>
+      </c>
     </row>
     <row r="105" ht="34.35" customHeight="1">
-      <c r="A105" s="10"/>
-      <c r="B105" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E105" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" ht="52.35" customHeight="1">
-      <c r="A106" s="10"/>
-      <c r="B106" t="s" s="8">
+      <c r="A105" s="9"/>
+      <c r="B105" t="s" s="14">
         <v>176</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E106" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F106" t="s" s="8">
+      <c r="C105" s="11"/>
+      <c r="D105" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s" s="12">
         <v>177</v>
       </c>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="6">
+    </row>
+    <row r="106" ht="16.35" customHeight="1">
+      <c r="A106" t="s" s="16">
         <v>178</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="G107" t="s" s="9">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" s="10"/>
-      <c r="B108" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s" s="8">
+      <c r="B106" s="15"/>
+      <c r="C106" s="11"/>
+      <c r="D106" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" ht="16.35" customHeight="1">
+      <c r="A107" s="9"/>
+      <c r="B107" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s" s="12">
         <v>179</v>
       </c>
-      <c r="G108" s="12"/>
+    </row>
+    <row r="108" ht="16.35" customHeight="1">
+      <c r="A108" s="9"/>
+      <c r="B108" t="s" s="14">
+        <v>180</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s" s="12">
+        <v>181</v>
+      </c>
     </row>
     <row r="109" ht="34.35" customHeight="1">
-      <c r="A109" s="10"/>
-      <c r="B109" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E109" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" ht="52.35" customHeight="1">
-      <c r="A110" s="10"/>
-      <c r="B110" t="s" s="8">
+      <c r="A109" s="9"/>
+      <c r="B109" t="s" s="14">
         <v>182</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E110" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F110" t="s" s="8">
+      <c r="C109" s="11"/>
+      <c r="D109" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s" s="12">
         <v>183</v>
       </c>
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="B111" t="s" s="8">
+    </row>
+    <row r="110" ht="16.35" customHeight="1">
+      <c r="A110" s="9"/>
+      <c r="B110" t="s" s="14">
         <v>184</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s" s="8">
+      <c r="C110" s="11"/>
+      <c r="D110" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s" s="12">
         <v>185</v>
       </c>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" ht="34.35" customHeight="1">
-      <c r="A112" s="10"/>
-      <c r="B112" t="s" s="8">
+    </row>
+    <row r="111" ht="52.35" customHeight="1">
+      <c r="A111" s="9"/>
+      <c r="B111" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="E112" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s" s="8">
+      <c r="C111" s="11"/>
+      <c r="D111" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s" s="12">
         <v>187</v>
       </c>
-      <c r="G112" s="12"/>
+    </row>
+    <row r="112" ht="16.35" customHeight="1">
+      <c r="A112" s="9"/>
+      <c r="B112" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s" s="12">
+        <v>189</v>
+      </c>
     </row>
     <row r="113" ht="34.35" customHeight="1">
-      <c r="A113" s="16"/>
-      <c r="B113" t="s" s="17">
-        <v>188</v>
-      </c>
-      <c r="C113" s="18"/>
-      <c r="D113" t="s" s="17">
-        <v>7</v>
-      </c>
-      <c r="E113" t="s" s="17">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s" s="17">
-        <v>189</v>
-      </c>
-      <c r="G113" s="19"/>
+      <c r="A113" s="9"/>
+      <c r="B113" t="s" s="14">
+        <v>190</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s" s="12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" ht="16.35" customHeight="1">
+      <c r="A114" s="9"/>
+      <c r="B114" t="s" s="14">
+        <v>192</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" ht="34.35" customHeight="1">
+      <c r="A115" s="9"/>
+      <c r="B115" s="15"/>
+      <c r="C115" t="s" s="12">
+        <v>193</v>
+      </c>
+      <c r="D115" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s" s="12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" ht="52.35" customHeight="1">
+      <c r="A116" s="9"/>
+      <c r="B116" s="15"/>
+      <c r="C116" t="s" s="12">
+        <v>195</v>
+      </c>
+      <c r="D116" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" ht="16.35" customHeight="1">
+      <c r="A117" t="s" s="16">
+        <v>197</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="11"/>
+      <c r="D117" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" ht="16.35" customHeight="1">
+      <c r="A118" s="9"/>
+      <c r="B118" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" ht="34.35" customHeight="1">
+      <c r="A119" s="9"/>
+      <c r="B119" t="s" s="14">
+        <v>199</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" ht="52.35" customHeight="1">
+      <c r="A120" s="9"/>
+      <c r="B120" t="s" s="14">
+        <v>201</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s" s="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" ht="16.35" customHeight="1">
+      <c r="A121" s="9"/>
+      <c r="B121" t="s" s="14">
+        <v>203</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" ht="34.35" customHeight="1">
+      <c r="A122" s="9"/>
+      <c r="B122" t="s" s="14">
+        <v>205</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" ht="34.35" customHeight="1">
+      <c r="A123" s="9"/>
+      <c r="B123" t="s" s="14">
+        <v>206</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" ht="16.35" customHeight="1">
+      <c r="A124" s="9"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" ht="16.35" customHeight="1">
+      <c r="A125" s="9"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" ht="16.35" customHeight="1">
+      <c r="A126" s="9"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" ht="16.35" customHeight="1">
+      <c r="A127" s="9"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" ht="16.35" customHeight="1">
+      <c r="A128" s="9"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" ht="16.35" customHeight="1">
+      <c r="A129" s="9"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" ht="16.35" customHeight="1">
+      <c r="A130" s="9"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" ht="16.35" customHeight="1">
+      <c r="A131" s="9"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" ht="16.35" customHeight="1">
+      <c r="A132" s="9"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" ht="16.35" customHeight="1">
+      <c r="A133" s="9"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" ht="16.35" customHeight="1">
+      <c r="A134" s="9"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" ht="16.35" customHeight="1">
+      <c r="A135" s="9"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" ht="16.35" customHeight="1">
+      <c r="A136" s="9"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" ht="16.35" customHeight="1">
+      <c r="A137" s="9"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" ht="16.35" customHeight="1">
+      <c r="A138" s="9"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" ht="16.35" customHeight="1">
+      <c r="A139" s="9"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" ht="16.35" customHeight="1">
+      <c r="A140" s="9"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" ht="16.35" customHeight="1">
+      <c r="A141" s="9"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" ht="16.35" customHeight="1">
+      <c r="A142" s="9"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" ht="16.35" customHeight="1">
+      <c r="A143" s="9"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" ht="16.35" customHeight="1">
+      <c r="A144" s="9"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" ht="16.35" customHeight="1">
+      <c r="A145" s="9"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" ht="16.35" customHeight="1">
+      <c r="A146" s="9"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" ht="16.35" customHeight="1">
+      <c r="A147" s="9"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="148" ht="16.35" customHeight="1">
+      <c r="A148" s="9"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" ht="16.35" customHeight="1">
+      <c r="A149" s="9"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+    </row>
+    <row r="150" ht="16.35" customHeight="1">
+      <c r="A150" s="9"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+    </row>
+    <row r="151" ht="16.35" customHeight="1">
+      <c r="A151" s="9"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" ht="16.35" customHeight="1">
+      <c r="A152" s="9"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" ht="16.35" customHeight="1">
+      <c r="A153" s="9"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" ht="16.35" customHeight="1">
+      <c r="A154" s="9"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" ht="16.35" customHeight="1">
+      <c r="A155" s="9"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" ht="16.35" customHeight="1">
+      <c r="A156" s="9"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" ht="16.35" customHeight="1">
+      <c r="A157" s="9"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+    </row>
+    <row r="158" ht="16.35" customHeight="1">
+      <c r="A158" s="9"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" ht="16.35" customHeight="1">
+      <c r="A159" s="9"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" ht="16.35" customHeight="1">
+      <c r="A160" s="9"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+    </row>
+    <row r="161" ht="16.35" customHeight="1">
+      <c r="A161" s="9"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="162" ht="16.35" customHeight="1">
+      <c r="A162" s="9"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+    </row>
+    <row r="163" ht="16.35" customHeight="1">
+      <c r="A163" s="9"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+    </row>
+    <row r="164" ht="16.35" customHeight="1">
+      <c r="A164" s="9"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+    </row>
+    <row r="165" ht="16.35" customHeight="1">
+      <c r="A165" s="9"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166" ht="16.35" customHeight="1">
+      <c r="A166" s="9"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" ht="16.35" customHeight="1">
+      <c r="A167" s="9"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+    </row>
+    <row r="168" ht="16.35" customHeight="1">
+      <c r="A168" s="9"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+    </row>
+    <row r="169" ht="16.35" customHeight="1">
+      <c r="A169" s="9"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+    </row>
+    <row r="170" ht="16.35" customHeight="1">
+      <c r="A170" s="9"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+    </row>
+    <row r="171" ht="16.35" customHeight="1">
+      <c r="A171" s="9"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+    </row>
+    <row r="172" ht="16.35" customHeight="1">
+      <c r="A172" s="9"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+    </row>
+    <row r="173" ht="16.35" customHeight="1">
+      <c r="A173" s="9"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+    </row>
+    <row r="174" ht="16.35" customHeight="1">
+      <c r="A174" s="9"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+    </row>
+    <row r="175" ht="16.35" customHeight="1">
+      <c r="A175" s="9"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+    </row>
+    <row r="176" ht="16.35" customHeight="1">
+      <c r="A176" s="9"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+    </row>
+    <row r="177" ht="16.35" customHeight="1">
+      <c r="A177" s="9"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+    </row>
+    <row r="178" ht="16.35" customHeight="1">
+      <c r="A178" s="9"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+    </row>
+    <row r="179" ht="16.35" customHeight="1">
+      <c r="A179" s="9"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+    </row>
+    <row r="180" ht="16.35" customHeight="1">
+      <c r="A180" s="9"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+    </row>
+    <row r="181" ht="16.35" customHeight="1">
+      <c r="A181" s="9"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+    </row>
+    <row r="182" ht="16.35" customHeight="1">
+      <c r="A182" s="9"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+    </row>
+    <row r="183" ht="16.35" customHeight="1">
+      <c r="A183" s="9"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+    </row>
+    <row r="184" ht="16.35" customHeight="1">
+      <c r="A184" s="9"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+    </row>
+    <row r="185" ht="16.35" customHeight="1">
+      <c r="A185" s="9"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+    </row>
+    <row r="186" ht="16.35" customHeight="1">
+      <c r="A186" s="9"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+    </row>
+    <row r="187" ht="16.35" customHeight="1">
+      <c r="A187" s="9"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" ht="16.35" customHeight="1">
+      <c r="A188" s="9"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" ht="16.35" customHeight="1">
+      <c r="A189" s="9"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" ht="16.35" customHeight="1">
+      <c r="A190" s="9"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" ht="16.35" customHeight="1">
+      <c r="A191" s="9"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+    </row>
+    <row r="192" ht="16.35" customHeight="1">
+      <c r="A192" s="9"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" ht="16.35" customHeight="1">
+      <c r="A193" s="9"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+    </row>
+    <row r="194" ht="16.35" customHeight="1">
+      <c r="A194" s="9"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" ht="16.35" customHeight="1">
+      <c r="A195" s="9"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+    </row>
+    <row r="196" ht="16.35" customHeight="1">
+      <c r="A196" s="9"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" ht="16.35" customHeight="1">
+      <c r="A197" s="9"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+    </row>
+    <row r="198" ht="16.35" customHeight="1">
+      <c r="A198" s="9"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+    </row>
+    <row r="199" ht="16.35" customHeight="1">
+      <c r="A199" s="9"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="19"/>
+    </row>
+    <row r="200" ht="16.35" customHeight="1">
+      <c r="A200" s="9"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="19"/>
+    </row>
+    <row r="201" ht="16.35" customHeight="1">
+      <c r="A201" s="9"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="19"/>
+    </row>
+    <row r="202" ht="16.35" customHeight="1">
+      <c r="A202" s="9"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="19"/>
+    </row>
+    <row r="203" ht="16.35" customHeight="1">
+      <c r="A203" s="9"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="19"/>
+    </row>
+    <row r="204" ht="16.35" customHeight="1">
+      <c r="A204" s="9"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="19"/>
+    </row>
+    <row r="205" ht="16.35" customHeight="1">
+      <c r="A205" s="9"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="19"/>
+    </row>
+    <row r="206" ht="16.35" customHeight="1">
+      <c r="A206" s="9"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="19"/>
+    </row>
+    <row r="207" ht="16.35" customHeight="1">
+      <c r="A207" s="9"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="19"/>
+    </row>
+    <row r="208" ht="16.35" customHeight="1">
+      <c r="A208" s="9"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="19"/>
+    </row>
+    <row r="209" ht="16.35" customHeight="1">
+      <c r="A209" s="9"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="19"/>
+    </row>
+    <row r="210" ht="16.35" customHeight="1">
+      <c r="A210" s="9"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="19"/>
+    </row>
+    <row r="211" ht="16.35" customHeight="1">
+      <c r="A211" s="9"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="19"/>
+    </row>
+    <row r="212" ht="16.35" customHeight="1">
+      <c r="A212" s="9"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="19"/>
+    </row>
+    <row r="213" ht="16.35" customHeight="1">
+      <c r="A213" s="9"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="19"/>
+    </row>
+    <row r="214" ht="16.35" customHeight="1">
+      <c r="A214" s="9"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="19"/>
+    </row>
+    <row r="215" ht="16.35" customHeight="1">
+      <c r="A215" s="9"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="19"/>
+    </row>
+    <row r="216" ht="16.35" customHeight="1">
+      <c r="A216" s="9"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="19"/>
+    </row>
+    <row r="217" ht="16.35" customHeight="1">
+      <c r="A217" s="9"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="19"/>
+    </row>
+    <row r="218" ht="16.35" customHeight="1">
+      <c r="A218" s="9"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="19"/>
+    </row>
+    <row r="219" ht="16.35" customHeight="1">
+      <c r="A219" s="9"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="19"/>
+    </row>
+    <row r="220" ht="16.35" customHeight="1">
+      <c r="A220" s="9"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="19"/>
+    </row>
+    <row r="221" ht="16.35" customHeight="1">
+      <c r="A221" s="9"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="19"/>
+    </row>
+    <row r="222" ht="16.35" customHeight="1">
+      <c r="A222" s="9"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="19"/>
+    </row>
+    <row r="223" ht="16.35" customHeight="1">
+      <c r="A223" s="9"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="19"/>
+    </row>
+    <row r="224" ht="16.35" customHeight="1">
+      <c r="A224" s="9"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="19"/>
+    </row>
+    <row r="225" ht="16.35" customHeight="1">
+      <c r="A225" s="9"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="19"/>
+    </row>
+    <row r="226" ht="16.35" customHeight="1">
+      <c r="A226" s="9"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="19"/>
+    </row>
+    <row r="227" ht="16.35" customHeight="1">
+      <c r="A227" s="9"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="19"/>
+    </row>
+    <row r="228" ht="16.35" customHeight="1">
+      <c r="A228" s="9"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="19"/>
+    </row>
+    <row r="229" ht="16.35" customHeight="1">
+      <c r="A229" s="9"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="19"/>
+    </row>
+    <row r="230" ht="16.35" customHeight="1">
+      <c r="A230" s="9"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="19"/>
+    </row>
+    <row r="231" ht="16.35" customHeight="1">
+      <c r="A231" s="9"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="19"/>
+    </row>
+    <row r="232" ht="16.35" customHeight="1">
+      <c r="A232" s="9"/>
+      <c r="B232" s="15"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="19"/>
+    </row>
+    <row r="233" ht="16.35" customHeight="1">
+      <c r="A233" s="9"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="19"/>
+    </row>
+    <row r="234" ht="16.35" customHeight="1">
+      <c r="A234" s="9"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="19"/>
+    </row>
+    <row r="235" ht="16.35" customHeight="1">
+      <c r="A235" s="9"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="19"/>
+    </row>
+    <row r="236" ht="16.35" customHeight="1">
+      <c r="A236" s="9"/>
+      <c r="B236" s="15"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="19"/>
+    </row>
+    <row r="237" ht="16.35" customHeight="1">
+      <c r="A237" s="9"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="19"/>
+    </row>
+    <row r="238" ht="16.35" customHeight="1">
+      <c r="A238" s="9"/>
+      <c r="B238" s="15"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="19"/>
+    </row>
+    <row r="239" ht="16.35" customHeight="1">
+      <c r="A239" s="9"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="19"/>
+    </row>
+    <row r="240" ht="16.35" customHeight="1">
+      <c r="A240" s="9"/>
+      <c r="B240" s="15"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="19"/>
+    </row>
+    <row r="241" ht="16.35" customHeight="1">
+      <c r="A241" s="9"/>
+      <c r="B241" s="15"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="19"/>
+    </row>
+    <row r="242" ht="16.35" customHeight="1">
+      <c r="A242" s="9"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="18"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="19"/>
+    </row>
+    <row r="243" ht="16.35" customHeight="1">
+      <c r="A243" s="9"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="19"/>
+    </row>
+    <row r="244" ht="16.35" customHeight="1">
+      <c r="A244" s="9"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="19"/>
+    </row>
+    <row r="245" ht="16.35" customHeight="1">
+      <c r="A245" s="9"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="19"/>
+    </row>
+    <row r="246" ht="16.35" customHeight="1">
+      <c r="A246" s="9"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="19"/>
+    </row>
+    <row r="247" ht="16.35" customHeight="1">
+      <c r="A247" s="9"/>
+      <c r="B247" s="15"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="19"/>
+    </row>
+    <row r="248" ht="16.35" customHeight="1">
+      <c r="A248" s="9"/>
+      <c r="B248" s="15"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="19"/>
+    </row>
+    <row r="249" ht="16.35" customHeight="1">
+      <c r="A249" s="9"/>
+      <c r="B249" s="15"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="19"/>
+    </row>
+    <row r="250" ht="16.35" customHeight="1">
+      <c r="A250" s="9"/>
+      <c r="B250" s="15"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="19"/>
+    </row>
+    <row r="251" ht="16.35" customHeight="1">
+      <c r="A251" s="9"/>
+      <c r="B251" s="15"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="19"/>
+    </row>
+    <row r="252" ht="16.35" customHeight="1">
+      <c r="A252" s="9"/>
+      <c r="B252" s="15"/>
+      <c r="C252" s="18"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="19"/>
+    </row>
+    <row r="253" ht="16.35" customHeight="1">
+      <c r="A253" s="9"/>
+      <c r="B253" s="15"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="19"/>
+    </row>
+    <row r="254" ht="16.35" customHeight="1">
+      <c r="A254" s="9"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="19"/>
+    </row>
+    <row r="255" ht="16.35" customHeight="1">
+      <c r="A255" s="9"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="19"/>
+    </row>
+    <row r="256" ht="16.35" customHeight="1">
+      <c r="A256" s="9"/>
+      <c r="B256" s="15"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="19"/>
+    </row>
+    <row r="257" ht="16.35" customHeight="1">
+      <c r="A257" s="9"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="19"/>
+    </row>
+    <row r="258" ht="16.35" customHeight="1">
+      <c r="A258" s="9"/>
+      <c r="B258" s="15"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="19"/>
+    </row>
+    <row r="259" ht="16.35" customHeight="1">
+      <c r="A259" s="9"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="19"/>
+    </row>
+    <row r="260" ht="16.35" customHeight="1">
+      <c r="A260" s="9"/>
+      <c r="B260" s="15"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="19"/>
+    </row>
+    <row r="261" ht="16.35" customHeight="1">
+      <c r="A261" s="9"/>
+      <c r="B261" s="15"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="19"/>
+    </row>
+    <row r="262" ht="16.35" customHeight="1">
+      <c r="A262" s="9"/>
+      <c r="B262" s="15"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="19"/>
+    </row>
+    <row r="263" ht="16.35" customHeight="1">
+      <c r="A263" s="9"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="19"/>
+    </row>
+    <row r="264" ht="16.35" customHeight="1">
+      <c r="A264" s="9"/>
+      <c r="B264" s="15"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="19"/>
+    </row>
+    <row r="265" ht="16.35" customHeight="1">
+      <c r="A265" s="9"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="19"/>
+    </row>
+    <row r="266" ht="16.35" customHeight="1">
+      <c r="A266" s="9"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="19"/>
+    </row>
+    <row r="267" ht="16.35" customHeight="1">
+      <c r="A267" s="9"/>
+      <c r="B267" s="15"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="19"/>
+    </row>
+    <row r="268" ht="16.35" customHeight="1">
+      <c r="A268" s="9"/>
+      <c r="B268" s="15"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="19"/>
+    </row>
+    <row r="269" ht="16.35" customHeight="1">
+      <c r="A269" s="9"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="19"/>
+    </row>
+    <row r="270" ht="16.35" customHeight="1">
+      <c r="A270" s="9"/>
+      <c r="B270" s="15"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="17"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="19"/>
+    </row>
+    <row r="271" ht="16.35" customHeight="1">
+      <c r="A271" s="9"/>
+      <c r="B271" s="15"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="19"/>
+    </row>
+    <row r="272" ht="16.35" customHeight="1">
+      <c r="A272" s="9"/>
+      <c r="B272" s="15"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="17"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="19"/>
+    </row>
+    <row r="273" ht="16.35" customHeight="1">
+      <c r="A273" s="9"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="19"/>
+    </row>
+    <row r="274" ht="16.35" customHeight="1">
+      <c r="A274" s="9"/>
+      <c r="B274" s="15"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="19"/>
+    </row>
+    <row r="275" ht="16.35" customHeight="1">
+      <c r="A275" s="9"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="19"/>
+    </row>
+    <row r="276" ht="16.35" customHeight="1">
+      <c r="A276" s="9"/>
+      <c r="B276" s="15"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="19"/>
+    </row>
+    <row r="277" ht="16.35" customHeight="1">
+      <c r="A277" s="9"/>
+      <c r="B277" s="15"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="19"/>
+    </row>
+    <row r="278" ht="16.35" customHeight="1">
+      <c r="A278" s="9"/>
+      <c r="B278" s="15"/>
+      <c r="C278" s="18"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="19"/>
+    </row>
+    <row r="279" ht="16.35" customHeight="1">
+      <c r="A279" s="9"/>
+      <c r="B279" s="15"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="19"/>
+    </row>
+    <row r="280" ht="16.35" customHeight="1">
+      <c r="A280" s="9"/>
+      <c r="B280" s="15"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="17"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="19"/>
+    </row>
+    <row r="281" ht="16.35" customHeight="1">
+      <c r="A281" s="9"/>
+      <c r="B281" s="15"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="19"/>
+    </row>
+    <row r="282" ht="16.35" customHeight="1">
+      <c r="A282" s="9"/>
+      <c r="B282" s="15"/>
+      <c r="C282" s="18"/>
+      <c r="D282" s="17"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="19"/>
+    </row>
+    <row r="283" ht="16.35" customHeight="1">
+      <c r="A283" s="9"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="17"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="19"/>
+    </row>
+    <row r="284" ht="16.35" customHeight="1">
+      <c r="A284" s="9"/>
+      <c r="B284" s="15"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="19"/>
+    </row>
+    <row r="285" ht="16.35" customHeight="1">
+      <c r="A285" s="9"/>
+      <c r="B285" s="15"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="17"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="19"/>
+    </row>
+    <row r="286" ht="16.35" customHeight="1">
+      <c r="A286" s="9"/>
+      <c r="B286" s="15"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="19"/>
+    </row>
+    <row r="287" ht="16.35" customHeight="1">
+      <c r="A287" s="9"/>
+      <c r="B287" s="15"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="17"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="19"/>
+    </row>
+    <row r="288" ht="16.35" customHeight="1">
+      <c r="A288" s="9"/>
+      <c r="B288" s="15"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="17"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="19"/>
+    </row>
+    <row r="289" ht="16.35" customHeight="1">
+      <c r="A289" s="9"/>
+      <c r="B289" s="15"/>
+      <c r="C289" s="18"/>
+      <c r="D289" s="17"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="19"/>
+    </row>
+    <row r="290" ht="16.35" customHeight="1">
+      <c r="A290" s="9"/>
+      <c r="B290" s="15"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="17"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291" ht="16.35" customHeight="1">
+      <c r="A291" s="9"/>
+      <c r="B291" s="15"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="18"/>
+      <c r="F291" s="19"/>
+    </row>
+    <row r="292" ht="16.35" customHeight="1">
+      <c r="A292" s="9"/>
+      <c r="B292" s="15"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="17"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="19"/>
+    </row>
+    <row r="293" ht="16.35" customHeight="1">
+      <c r="A293" s="9"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="18"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="19"/>
+    </row>
+    <row r="294" ht="16.35" customHeight="1">
+      <c r="A294" s="9"/>
+      <c r="B294" s="15"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="17"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="19"/>
+    </row>
+    <row r="295" ht="16.35" customHeight="1">
+      <c r="A295" s="9"/>
+      <c r="B295" s="15"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="17"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="19"/>
+    </row>
+    <row r="296" ht="16.35" customHeight="1">
+      <c r="A296" s="9"/>
+      <c r="B296" s="15"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="17"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="19"/>
+    </row>
+    <row r="297" ht="16.35" customHeight="1">
+      <c r="A297" s="9"/>
+      <c r="B297" s="15"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="17"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="19"/>
+    </row>
+    <row r="298" ht="16.35" customHeight="1">
+      <c r="A298" s="9"/>
+      <c r="B298" s="15"/>
+      <c r="C298" s="18"/>
+      <c r="D298" s="17"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="19"/>
+    </row>
+    <row r="299" ht="16.35" customHeight="1">
+      <c r="A299" s="9"/>
+      <c r="B299" s="15"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="17"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="19"/>
+    </row>
+    <row r="300" ht="16.35" customHeight="1">
+      <c r="A300" s="9"/>
+      <c r="B300" s="15"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="17"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="19"/>
+    </row>
+    <row r="301" ht="16.35" customHeight="1">
+      <c r="A301" s="9"/>
+      <c r="B301" s="15"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="17"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="19"/>
+    </row>
+    <row r="302" ht="16.35" customHeight="1">
+      <c r="A302" s="9"/>
+      <c r="B302" s="15"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="17"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="19"/>
+    </row>
+    <row r="303" ht="16.35" customHeight="1">
+      <c r="A303" s="9"/>
+      <c r="B303" s="15"/>
+      <c r="C303" s="18"/>
+      <c r="D303" s="17"/>
+      <c r="E303" s="18"/>
+      <c r="F303" s="19"/>
+    </row>
+    <row r="304" ht="16.35" customHeight="1">
+      <c r="A304" s="9"/>
+      <c r="B304" s="15"/>
+      <c r="C304" s="18"/>
+      <c r="D304" s="17"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="19"/>
+    </row>
+    <row r="305" ht="16.35" customHeight="1">
+      <c r="A305" s="9"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="19"/>
+    </row>
+    <row r="306" ht="16.35" customHeight="1">
+      <c r="A306" s="9"/>
+      <c r="B306" s="15"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="17"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="19"/>
+    </row>
+    <row r="307" ht="16.35" customHeight="1">
+      <c r="A307" s="9"/>
+      <c r="B307" s="15"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="17"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="19"/>
+    </row>
+    <row r="308" ht="16.35" customHeight="1">
+      <c r="A308" s="9"/>
+      <c r="B308" s="15"/>
+      <c r="C308" s="18"/>
+      <c r="D308" s="17"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="19"/>
+    </row>
+    <row r="309" ht="16.35" customHeight="1">
+      <c r="A309" s="9"/>
+      <c r="B309" s="15"/>
+      <c r="C309" s="18"/>
+      <c r="D309" s="17"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="19"/>
+    </row>
+    <row r="310" ht="16.35" customHeight="1">
+      <c r="A310" s="9"/>
+      <c r="B310" s="15"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="17"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="19"/>
+    </row>
+    <row r="311" ht="16.35" customHeight="1">
+      <c r="A311" s="9"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="17"/>
+      <c r="E311" s="18"/>
+      <c r="F311" s="19"/>
+    </row>
+    <row r="312" ht="16.35" customHeight="1">
+      <c r="A312" s="9"/>
+      <c r="B312" s="15"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="17"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="19"/>
+    </row>
+    <row r="313" ht="16.35" customHeight="1">
+      <c r="A313" s="9"/>
+      <c r="B313" s="15"/>
+      <c r="C313" s="18"/>
+      <c r="D313" s="17"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="19"/>
+    </row>
+    <row r="314" ht="16.35" customHeight="1">
+      <c r="A314" s="9"/>
+      <c r="B314" s="15"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="17"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="19"/>
+    </row>
+    <row r="315" ht="16.35" customHeight="1">
+      <c r="A315" s="9"/>
+      <c r="B315" s="15"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="17"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="19"/>
+    </row>
+    <row r="316" ht="16.35" customHeight="1">
+      <c r="A316" s="9"/>
+      <c r="B316" s="15"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="19"/>
+    </row>
+    <row r="317" ht="16.35" customHeight="1">
+      <c r="A317" s="9"/>
+      <c r="B317" s="15"/>
+      <c r="C317" s="18"/>
+      <c r="D317" s="17"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="19"/>
+    </row>
+    <row r="318" ht="16.35" customHeight="1">
+      <c r="A318" s="9"/>
+      <c r="B318" s="15"/>
+      <c r="C318" s="18"/>
+      <c r="D318" s="17"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="19"/>
+    </row>
+    <row r="319" ht="16.35" customHeight="1">
+      <c r="A319" s="9"/>
+      <c r="B319" s="15"/>
+      <c r="C319" s="18"/>
+      <c r="D319" s="17"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="19"/>
+    </row>
+    <row r="320" ht="16.35" customHeight="1">
+      <c r="A320" s="9"/>
+      <c r="B320" s="15"/>
+      <c r="C320" s="18"/>
+      <c r="D320" s="17"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="19"/>
+    </row>
+    <row r="321" ht="16.35" customHeight="1">
+      <c r="A321" s="9"/>
+      <c r="B321" s="15"/>
+      <c r="C321" s="18"/>
+      <c r="D321" s="17"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="19"/>
+    </row>
+    <row r="322" ht="16.35" customHeight="1">
+      <c r="A322" s="9"/>
+      <c r="B322" s="15"/>
+      <c r="C322" s="18"/>
+      <c r="D322" s="17"/>
+      <c r="E322" s="18"/>
+      <c r="F322" s="19"/>
+    </row>
+    <row r="323" ht="16.35" customHeight="1">
+      <c r="A323" s="9"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="18"/>
+      <c r="D323" s="17"/>
+      <c r="E323" s="18"/>
+      <c r="F323" s="19"/>
+    </row>
+    <row r="324" ht="16.35" customHeight="1">
+      <c r="A324" s="9"/>
+      <c r="B324" s="15"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="17"/>
+      <c r="E324" s="18"/>
+      <c r="F324" s="19"/>
+    </row>
+    <row r="325" ht="16.35" customHeight="1">
+      <c r="A325" s="9"/>
+      <c r="B325" s="15"/>
+      <c r="C325" s="18"/>
+      <c r="D325" s="17"/>
+      <c r="E325" s="18"/>
+      <c r="F325" s="19"/>
+    </row>
+    <row r="326" ht="16.35" customHeight="1">
+      <c r="A326" s="9"/>
+      <c r="B326" s="15"/>
+      <c r="C326" s="18"/>
+      <c r="D326" s="17"/>
+      <c r="E326" s="18"/>
+      <c r="F326" s="19"/>
+    </row>
+    <row r="327" ht="16.35" customHeight="1">
+      <c r="A327" s="9"/>
+      <c r="B327" s="15"/>
+      <c r="C327" s="18"/>
+      <c r="D327" s="17"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="19"/>
+    </row>
+    <row r="328" ht="16.35" customHeight="1">
+      <c r="A328" s="9"/>
+      <c r="B328" s="15"/>
+      <c r="C328" s="18"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="19"/>
+    </row>
+    <row r="329" ht="16.35" customHeight="1">
+      <c r="A329" s="9"/>
+      <c r="B329" s="15"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="17"/>
+      <c r="E329" s="18"/>
+      <c r="F329" s="19"/>
+    </row>
+    <row r="330" ht="16.35" customHeight="1">
+      <c r="A330" s="9"/>
+      <c r="B330" s="15"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="17"/>
+      <c r="E330" s="18"/>
+      <c r="F330" s="19"/>
+    </row>
+    <row r="331" ht="16.35" customHeight="1">
+      <c r="A331" s="9"/>
+      <c r="B331" s="15"/>
+      <c r="C331" s="18"/>
+      <c r="D331" s="17"/>
+      <c r="E331" s="18"/>
+      <c r="F331" s="19"/>
+    </row>
+    <row r="332" ht="16.35" customHeight="1">
+      <c r="A332" s="9"/>
+      <c r="B332" s="15"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="17"/>
+      <c r="E332" s="18"/>
+      <c r="F332" s="19"/>
+    </row>
+    <row r="333" ht="16.35" customHeight="1">
+      <c r="A333" s="9"/>
+      <c r="B333" s="15"/>
+      <c r="C333" s="18"/>
+      <c r="D333" s="17"/>
+      <c r="E333" s="18"/>
+      <c r="F333" s="19"/>
+    </row>
+    <row r="334" ht="16.35" customHeight="1">
+      <c r="A334" s="9"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="19"/>
+    </row>
+    <row r="335" ht="16.35" customHeight="1">
+      <c r="A335" s="9"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="17"/>
+      <c r="E335" s="18"/>
+      <c r="F335" s="19"/>
+    </row>
+    <row r="336" ht="16.35" customHeight="1">
+      <c r="A336" s="9"/>
+      <c r="B336" s="15"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="17"/>
+      <c r="E336" s="18"/>
+      <c r="F336" s="19"/>
+    </row>
+    <row r="337" ht="16.35" customHeight="1">
+      <c r="A337" s="9"/>
+      <c r="B337" s="15"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="18"/>
+      <c r="F337" s="19"/>
+    </row>
+    <row r="338" ht="16.35" customHeight="1">
+      <c r="A338" s="9"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="18"/>
+      <c r="D338" s="17"/>
+      <c r="E338" s="18"/>
+      <c r="F338" s="19"/>
+    </row>
+    <row r="339" ht="16.35" customHeight="1">
+      <c r="A339" s="9"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="17"/>
+      <c r="E339" s="18"/>
+      <c r="F339" s="19"/>
+    </row>
+    <row r="340" ht="16.35" customHeight="1">
+      <c r="A340" s="9"/>
+      <c r="B340" s="15"/>
+      <c r="C340" s="18"/>
+      <c r="D340" s="17"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="19"/>
+    </row>
+    <row r="341" ht="16.35" customHeight="1">
+      <c r="A341" s="9"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="18"/>
+      <c r="D341" s="17"/>
+      <c r="E341" s="18"/>
+      <c r="F341" s="19"/>
+    </row>
+    <row r="342" ht="16.35" customHeight="1">
+      <c r="A342" s="9"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="18"/>
+      <c r="D342" s="17"/>
+      <c r="E342" s="18"/>
+      <c r="F342" s="19"/>
+    </row>
+    <row r="343" ht="16.35" customHeight="1">
+      <c r="A343" s="9"/>
+      <c r="B343" s="15"/>
+      <c r="C343" s="18"/>
+      <c r="D343" s="17"/>
+      <c r="E343" s="18"/>
+      <c r="F343" s="19"/>
+    </row>
+    <row r="344" ht="16.35" customHeight="1">
+      <c r="A344" s="9"/>
+      <c r="B344" s="15"/>
+      <c r="C344" s="18"/>
+      <c r="D344" s="17"/>
+      <c r="E344" s="18"/>
+      <c r="F344" s="19"/>
+    </row>
+    <row r="345" ht="16.35" customHeight="1">
+      <c r="A345" s="9"/>
+      <c r="B345" s="15"/>
+      <c r="C345" s="18"/>
+      <c r="D345" s="17"/>
+      <c r="E345" s="18"/>
+      <c r="F345" s="19"/>
+    </row>
+    <row r="346" ht="16.35" customHeight="1">
+      <c r="A346" s="9"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="18"/>
+      <c r="D346" s="17"/>
+      <c r="E346" s="18"/>
+      <c r="F346" s="19"/>
+    </row>
+    <row r="347" ht="16.35" customHeight="1">
+      <c r="A347" s="9"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="18"/>
+      <c r="D347" s="17"/>
+      <c r="E347" s="18"/>
+      <c r="F347" s="19"/>
+    </row>
+    <row r="348" ht="16.35" customHeight="1">
+      <c r="A348" s="9"/>
+      <c r="B348" s="15"/>
+      <c r="C348" s="18"/>
+      <c r="D348" s="17"/>
+      <c r="E348" s="18"/>
+      <c r="F348" s="19"/>
+    </row>
+    <row r="349" ht="16.35" customHeight="1">
+      <c r="A349" s="9"/>
+      <c r="B349" s="15"/>
+      <c r="C349" s="18"/>
+      <c r="D349" s="17"/>
+      <c r="E349" s="18"/>
+      <c r="F349" s="19"/>
+    </row>
+    <row r="350" ht="16.35" customHeight="1">
+      <c r="A350" s="9"/>
+      <c r="B350" s="15"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="17"/>
+      <c r="E350" s="18"/>
+      <c r="F350" s="19"/>
+    </row>
+    <row r="351" ht="16.35" customHeight="1">
+      <c r="A351" s="9"/>
+      <c r="B351" s="15"/>
+      <c r="C351" s="18"/>
+      <c r="D351" s="17"/>
+      <c r="E351" s="18"/>
+      <c r="F351" s="19"/>
+    </row>
+    <row r="352" ht="16.35" customHeight="1">
+      <c r="A352" s="9"/>
+      <c r="B352" s="15"/>
+      <c r="C352" s="18"/>
+      <c r="D352" s="17"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="19"/>
+    </row>
+    <row r="353" ht="16.35" customHeight="1">
+      <c r="A353" s="9"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="18"/>
+      <c r="D353" s="17"/>
+      <c r="E353" s="18"/>
+      <c r="F353" s="19"/>
+    </row>
+    <row r="354" ht="16.35" customHeight="1">
+      <c r="A354" s="9"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="18"/>
+      <c r="D354" s="17"/>
+      <c r="E354" s="18"/>
+      <c r="F354" s="19"/>
+    </row>
+    <row r="355" ht="16.35" customHeight="1">
+      <c r="A355" s="9"/>
+      <c r="B355" s="15"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="17"/>
+      <c r="E355" s="18"/>
+      <c r="F355" s="19"/>
+    </row>
+    <row r="356" ht="16.35" customHeight="1">
+      <c r="A356" s="9"/>
+      <c r="B356" s="15"/>
+      <c r="C356" s="18"/>
+      <c r="D356" s="17"/>
+      <c r="E356" s="18"/>
+      <c r="F356" s="19"/>
+    </row>
+    <row r="357" ht="16.35" customHeight="1">
+      <c r="A357" s="9"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="18"/>
+      <c r="D357" s="17"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="19"/>
+    </row>
+    <row r="358" ht="16.35" customHeight="1">
+      <c r="A358" s="9"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="18"/>
+      <c r="D358" s="17"/>
+      <c r="E358" s="18"/>
+      <c r="F358" s="19"/>
+    </row>
+    <row r="359" ht="16.35" customHeight="1">
+      <c r="A359" s="9"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="18"/>
+      <c r="D359" s="17"/>
+      <c r="E359" s="18"/>
+      <c r="F359" s="19"/>
+    </row>
+    <row r="360" ht="16.35" customHeight="1">
+      <c r="A360" s="9"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="17"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="19"/>
+    </row>
+    <row r="361" ht="16.35" customHeight="1">
+      <c r="A361" s="9"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="18"/>
+      <c r="D361" s="17"/>
+      <c r="E361" s="18"/>
+      <c r="F361" s="19"/>
+    </row>
+    <row r="362" ht="16.35" customHeight="1">
+      <c r="A362" s="9"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="17"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="19"/>
+    </row>
+    <row r="363" ht="16.35" customHeight="1">
+      <c r="A363" s="9"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="17"/>
+      <c r="E363" s="18"/>
+      <c r="F363" s="19"/>
+    </row>
+    <row r="364" ht="16.35" customHeight="1">
+      <c r="A364" s="9"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="17"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="19"/>
+    </row>
+    <row r="365" ht="16.35" customHeight="1">
+      <c r="A365" s="9"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="17"/>
+      <c r="E365" s="18"/>
+      <c r="F365" s="19"/>
+    </row>
+    <row r="366" ht="16.35" customHeight="1">
+      <c r="A366" s="9"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="17"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="19"/>
+    </row>
+    <row r="367" ht="16.35" customHeight="1">
+      <c r="A367" s="9"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="18"/>
+      <c r="D367" s="17"/>
+      <c r="E367" s="18"/>
+      <c r="F367" s="19"/>
+    </row>
+    <row r="368" ht="16.35" customHeight="1">
+      <c r="A368" s="9"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="18"/>
+      <c r="D368" s="17"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="19"/>
+    </row>
+    <row r="369" ht="16.35" customHeight="1">
+      <c r="A369" s="9"/>
+      <c r="B369" s="15"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="17"/>
+      <c r="E369" s="18"/>
+      <c r="F369" s="19"/>
+    </row>
+    <row r="370" ht="16.35" customHeight="1">
+      <c r="A370" s="9"/>
+      <c r="B370" s="15"/>
+      <c r="C370" s="18"/>
+      <c r="D370" s="17"/>
+      <c r="E370" s="18"/>
+      <c r="F370" s="19"/>
+    </row>
+    <row r="371" ht="16.35" customHeight="1">
+      <c r="A371" s="9"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="18"/>
+      <c r="D371" s="17"/>
+      <c r="E371" s="18"/>
+      <c r="F371" s="19"/>
+    </row>
+    <row r="372" ht="16.35" customHeight="1">
+      <c r="A372" s="9"/>
+      <c r="B372" s="15"/>
+      <c r="C372" s="18"/>
+      <c r="D372" s="17"/>
+      <c r="E372" s="18"/>
+      <c r="F372" s="19"/>
+    </row>
+    <row r="373" ht="16.35" customHeight="1">
+      <c r="A373" s="9"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="18"/>
+      <c r="F373" s="19"/>
+    </row>
+    <row r="374" ht="16.35" customHeight="1">
+      <c r="A374" s="9"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="18"/>
+      <c r="D374" s="17"/>
+      <c r="E374" s="18"/>
+      <c r="F374" s="19"/>
+    </row>
+    <row r="375" ht="16.35" customHeight="1">
+      <c r="A375" s="9"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="17"/>
+      <c r="E375" s="18"/>
+      <c r="F375" s="19"/>
+    </row>
+    <row r="376" ht="16.35" customHeight="1">
+      <c r="A376" s="9"/>
+      <c r="B376" s="15"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="17"/>
+      <c r="E376" s="18"/>
+      <c r="F376" s="19"/>
+    </row>
+    <row r="377" ht="16.35" customHeight="1">
+      <c r="A377" s="9"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="17"/>
+      <c r="E377" s="18"/>
+      <c r="F377" s="19"/>
+    </row>
+    <row r="378" ht="16.35" customHeight="1">
+      <c r="A378" s="9"/>
+      <c r="B378" s="15"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="17"/>
+      <c r="E378" s="18"/>
+      <c r="F378" s="19"/>
+    </row>
+    <row r="379" ht="16.35" customHeight="1">
+      <c r="A379" s="9"/>
+      <c r="B379" s="15"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="17"/>
+      <c r="E379" s="18"/>
+      <c r="F379" s="19"/>
+    </row>
+    <row r="380" ht="16.35" customHeight="1">
+      <c r="A380" s="9"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="17"/>
+      <c r="E380" s="18"/>
+      <c r="F380" s="19"/>
+    </row>
+    <row r="381" ht="16.35" customHeight="1">
+      <c r="A381" s="9"/>
+      <c r="B381" s="15"/>
+      <c r="C381" s="18"/>
+      <c r="D381" s="17"/>
+      <c r="E381" s="18"/>
+      <c r="F381" s="19"/>
+    </row>
+    <row r="382" ht="16.35" customHeight="1">
+      <c r="A382" s="9"/>
+      <c r="B382" s="15"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="17"/>
+      <c r="E382" s="18"/>
+      <c r="F382" s="19"/>
+    </row>
+    <row r="383" ht="16.35" customHeight="1">
+      <c r="A383" s="9"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="17"/>
+      <c r="E383" s="18"/>
+      <c r="F383" s="19"/>
+    </row>
+    <row r="384" ht="16.35" customHeight="1">
+      <c r="A384" s="9"/>
+      <c r="B384" s="15"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="17"/>
+      <c r="E384" s="18"/>
+      <c r="F384" s="19"/>
+    </row>
+    <row r="385" ht="16.35" customHeight="1">
+      <c r="A385" s="9"/>
+      <c r="B385" s="15"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="17"/>
+      <c r="E385" s="18"/>
+      <c r="F385" s="19"/>
+    </row>
+    <row r="386" ht="16.35" customHeight="1">
+      <c r="A386" s="9"/>
+      <c r="B386" s="15"/>
+      <c r="C386" s="18"/>
+      <c r="D386" s="17"/>
+      <c r="E386" s="18"/>
+      <c r="F386" s="19"/>
+    </row>
+    <row r="387" ht="16.35" customHeight="1">
+      <c r="A387" s="9"/>
+      <c r="B387" s="15"/>
+      <c r="C387" s="18"/>
+      <c r="D387" s="17"/>
+      <c r="E387" s="18"/>
+      <c r="F387" s="19"/>
+    </row>
+    <row r="388" ht="16.35" customHeight="1">
+      <c r="A388" s="9"/>
+      <c r="B388" s="15"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="17"/>
+      <c r="E388" s="18"/>
+      <c r="F388" s="19"/>
+    </row>
+    <row r="389" ht="16.35" customHeight="1">
+      <c r="A389" s="9"/>
+      <c r="B389" s="15"/>
+      <c r="C389" s="18"/>
+      <c r="D389" s="17"/>
+      <c r="E389" s="18"/>
+      <c r="F389" s="19"/>
+    </row>
+    <row r="390" ht="16.35" customHeight="1">
+      <c r="A390" s="9"/>
+      <c r="B390" s="15"/>
+      <c r="C390" s="18"/>
+      <c r="D390" s="17"/>
+      <c r="E390" s="18"/>
+      <c r="F390" s="19"/>
+    </row>
+    <row r="391" ht="16.35" customHeight="1">
+      <c r="A391" s="9"/>
+      <c r="B391" s="15"/>
+      <c r="C391" s="18"/>
+      <c r="D391" s="17"/>
+      <c r="E391" s="18"/>
+      <c r="F391" s="19"/>
+    </row>
+    <row r="392" ht="16.35" customHeight="1">
+      <c r="A392" s="9"/>
+      <c r="B392" s="15"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="17"/>
+      <c r="E392" s="18"/>
+      <c r="F392" s="19"/>
+    </row>
+    <row r="393" ht="16.35" customHeight="1">
+      <c r="A393" s="9"/>
+      <c r="B393" s="15"/>
+      <c r="C393" s="18"/>
+      <c r="D393" s="17"/>
+      <c r="E393" s="18"/>
+      <c r="F393" s="19"/>
+    </row>
+    <row r="394" ht="16.35" customHeight="1">
+      <c r="A394" s="9"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="18"/>
+      <c r="D394" s="17"/>
+      <c r="E394" s="18"/>
+      <c r="F394" s="19"/>
+    </row>
+    <row r="395" ht="16.35" customHeight="1">
+      <c r="A395" s="9"/>
+      <c r="B395" s="15"/>
+      <c r="C395" s="18"/>
+      <c r="D395" s="17"/>
+      <c r="E395" s="18"/>
+      <c r="F395" s="19"/>
+    </row>
+    <row r="396" ht="16.35" customHeight="1">
+      <c r="A396" s="9"/>
+      <c r="B396" s="15"/>
+      <c r="C396" s="18"/>
+      <c r="D396" s="17"/>
+      <c r="E396" s="18"/>
+      <c r="F396" s="19"/>
+    </row>
+    <row r="397" ht="16.35" customHeight="1">
+      <c r="A397" s="9"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="18"/>
+      <c r="D397" s="17"/>
+      <c r="E397" s="18"/>
+      <c r="F397" s="19"/>
+    </row>
+    <row r="398" ht="16.35" customHeight="1">
+      <c r="A398" s="9"/>
+      <c r="B398" s="15"/>
+      <c r="C398" s="18"/>
+      <c r="D398" s="17"/>
+      <c r="E398" s="18"/>
+      <c r="F398" s="19"/>
+    </row>
+    <row r="399" ht="16.35" customHeight="1">
+      <c r="A399" s="9"/>
+      <c r="B399" s="15"/>
+      <c r="C399" s="18"/>
+      <c r="D399" s="17"/>
+      <c r="E399" s="18"/>
+      <c r="F399" s="19"/>
+    </row>
+    <row r="400" ht="16.35" customHeight="1">
+      <c r="A400" s="9"/>
+      <c r="B400" s="15"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="17"/>
+      <c r="E400" s="18"/>
+      <c r="F400" s="19"/>
+    </row>
+    <row r="401" ht="16.35" customHeight="1">
+      <c r="A401" s="9"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="18"/>
+      <c r="D401" s="17"/>
+      <c r="E401" s="18"/>
+      <c r="F401" s="19"/>
+    </row>
+    <row r="402" ht="16.35" customHeight="1">
+      <c r="A402" s="9"/>
+      <c r="B402" s="15"/>
+      <c r="C402" s="18"/>
+      <c r="D402" s="17"/>
+      <c r="E402" s="18"/>
+      <c r="F402" s="19"/>
+    </row>
+    <row r="403" ht="16.35" customHeight="1">
+      <c r="A403" s="9"/>
+      <c r="B403" s="15"/>
+      <c r="C403" s="18"/>
+      <c r="D403" s="17"/>
+      <c r="E403" s="18"/>
+      <c r="F403" s="19"/>
+    </row>
+    <row r="404" ht="16.35" customHeight="1">
+      <c r="A404" s="9"/>
+      <c r="B404" s="15"/>
+      <c r="C404" s="18"/>
+      <c r="D404" s="17"/>
+      <c r="E404" s="18"/>
+      <c r="F404" s="19"/>
+    </row>
+    <row r="405" ht="16.35" customHeight="1">
+      <c r="A405" s="9"/>
+      <c r="B405" s="15"/>
+      <c r="C405" s="18"/>
+      <c r="D405" s="17"/>
+      <c r="E405" s="18"/>
+      <c r="F405" s="19"/>
+    </row>
+    <row r="406" ht="16.35" customHeight="1">
+      <c r="A406" s="9"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="17"/>
+      <c r="E406" s="18"/>
+      <c r="F406" s="19"/>
+    </row>
+    <row r="407" ht="16.35" customHeight="1">
+      <c r="A407" s="9"/>
+      <c r="B407" s="15"/>
+      <c r="C407" s="18"/>
+      <c r="D407" s="17"/>
+      <c r="E407" s="18"/>
+      <c r="F407" s="19"/>
+    </row>
+    <row r="408" ht="16.35" customHeight="1">
+      <c r="A408" s="9"/>
+      <c r="B408" s="15"/>
+      <c r="C408" s="18"/>
+      <c r="D408" s="17"/>
+      <c r="E408" s="18"/>
+      <c r="F408" s="19"/>
+    </row>
+    <row r="409" ht="16.35" customHeight="1">
+      <c r="A409" s="9"/>
+      <c r="B409" s="15"/>
+      <c r="C409" s="18"/>
+      <c r="D409" s="17"/>
+      <c r="E409" s="18"/>
+      <c r="F409" s="19"/>
+    </row>
+    <row r="410" ht="16.35" customHeight="1">
+      <c r="A410" s="9"/>
+      <c r="B410" s="15"/>
+      <c r="C410" s="18"/>
+      <c r="D410" s="17"/>
+      <c r="E410" s="18"/>
+      <c r="F410" s="19"/>
+    </row>
+    <row r="411" ht="16.35" customHeight="1">
+      <c r="A411" s="9"/>
+      <c r="B411" s="15"/>
+      <c r="C411" s="18"/>
+      <c r="D411" s="17"/>
+      <c r="E411" s="18"/>
+      <c r="F411" s="19"/>
+    </row>
+    <row r="412" ht="16.35" customHeight="1">
+      <c r="A412" s="9"/>
+      <c r="B412" s="15"/>
+      <c r="C412" s="18"/>
+      <c r="D412" s="17"/>
+      <c r="E412" s="18"/>
+      <c r="F412" s="19"/>
+    </row>
+    <row r="413" ht="16.35" customHeight="1">
+      <c r="A413" s="9"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="18"/>
+      <c r="D413" s="17"/>
+      <c r="E413" s="18"/>
+      <c r="F413" s="19"/>
+    </row>
+    <row r="414" ht="16.35" customHeight="1">
+      <c r="A414" s="9"/>
+      <c r="B414" s="15"/>
+      <c r="C414" s="18"/>
+      <c r="D414" s="17"/>
+      <c r="E414" s="18"/>
+      <c r="F414" s="19"/>
+    </row>
+    <row r="415" ht="16.35" customHeight="1">
+      <c r="A415" s="9"/>
+      <c r="B415" s="15"/>
+      <c r="C415" s="18"/>
+      <c r="D415" s="17"/>
+      <c r="E415" s="18"/>
+      <c r="F415" s="19"/>
+    </row>
+    <row r="416" ht="16.35" customHeight="1">
+      <c r="A416" s="9"/>
+      <c r="B416" s="15"/>
+      <c r="C416" s="18"/>
+      <c r="D416" s="17"/>
+      <c r="E416" s="18"/>
+      <c r="F416" s="19"/>
+    </row>
+    <row r="417" ht="16.35" customHeight="1">
+      <c r="A417" s="9"/>
+      <c r="B417" s="15"/>
+      <c r="C417" s="18"/>
+      <c r="D417" s="17"/>
+      <c r="E417" s="18"/>
+      <c r="F417" s="19"/>
+    </row>
+    <row r="418" ht="16.35" customHeight="1">
+      <c r="A418" s="9"/>
+      <c r="B418" s="15"/>
+      <c r="C418" s="18"/>
+      <c r="D418" s="17"/>
+      <c r="E418" s="18"/>
+      <c r="F418" s="19"/>
+    </row>
+    <row r="419" ht="16.35" customHeight="1">
+      <c r="A419" s="9"/>
+      <c r="B419" s="15"/>
+      <c r="C419" s="18"/>
+      <c r="D419" s="17"/>
+      <c r="E419" s="18"/>
+      <c r="F419" s="19"/>
+    </row>
+    <row r="420" ht="16.35" customHeight="1">
+      <c r="A420" s="9"/>
+      <c r="B420" s="15"/>
+      <c r="C420" s="18"/>
+      <c r="D420" s="17"/>
+      <c r="E420" s="18"/>
+      <c r="F420" s="19"/>
+    </row>
+    <row r="421" ht="16.35" customHeight="1">
+      <c r="A421" s="9"/>
+      <c r="B421" s="15"/>
+      <c r="C421" s="18"/>
+      <c r="D421" s="17"/>
+      <c r="E421" s="18"/>
+      <c r="F421" s="19"/>
+    </row>
+    <row r="422" ht="16.35" customHeight="1">
+      <c r="A422" s="9"/>
+      <c r="B422" s="15"/>
+      <c r="C422" s="18"/>
+      <c r="D422" s="17"/>
+      <c r="E422" s="18"/>
+      <c r="F422" s="19"/>
+    </row>
+    <row r="423" ht="16.35" customHeight="1">
+      <c r="A423" s="9"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="18"/>
+      <c r="D423" s="17"/>
+      <c r="E423" s="18"/>
+      <c r="F423" s="19"/>
+    </row>
+    <row r="424" ht="16.35" customHeight="1">
+      <c r="A424" s="9"/>
+      <c r="B424" s="15"/>
+      <c r="C424" s="18"/>
+      <c r="D424" s="17"/>
+      <c r="E424" s="18"/>
+      <c r="F424" s="19"/>
+    </row>
+    <row r="425" ht="16.35" customHeight="1">
+      <c r="A425" s="9"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="18"/>
+      <c r="D425" s="17"/>
+      <c r="E425" s="18"/>
+      <c r="F425" s="19"/>
+    </row>
+    <row r="426" ht="16.35" customHeight="1">
+      <c r="A426" s="9"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="18"/>
+      <c r="D426" s="17"/>
+      <c r="E426" s="18"/>
+      <c r="F426" s="19"/>
+    </row>
+    <row r="427" ht="16.35" customHeight="1">
+      <c r="A427" s="9"/>
+      <c r="B427" s="15"/>
+      <c r="C427" s="18"/>
+      <c r="D427" s="17"/>
+      <c r="E427" s="18"/>
+      <c r="F427" s="19"/>
+    </row>
+    <row r="428" ht="16.35" customHeight="1">
+      <c r="A428" s="9"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="18"/>
+      <c r="D428" s="17"/>
+      <c r="E428" s="18"/>
+      <c r="F428" s="19"/>
+    </row>
+    <row r="429" ht="16.35" customHeight="1">
+      <c r="A429" s="9"/>
+      <c r="B429" s="15"/>
+      <c r="C429" s="18"/>
+      <c r="D429" s="17"/>
+      <c r="E429" s="18"/>
+      <c r="F429" s="19"/>
+    </row>
+    <row r="430" ht="16.35" customHeight="1">
+      <c r="A430" s="9"/>
+      <c r="B430" s="15"/>
+      <c r="C430" s="18"/>
+      <c r="D430" s="17"/>
+      <c r="E430" s="18"/>
+      <c r="F430" s="19"/>
+    </row>
+    <row r="431" ht="16.35" customHeight="1">
+      <c r="A431" s="9"/>
+      <c r="B431" s="15"/>
+      <c r="C431" s="18"/>
+      <c r="D431" s="17"/>
+      <c r="E431" s="18"/>
+      <c r="F431" s="19"/>
+    </row>
+    <row r="432" ht="16.35" customHeight="1">
+      <c r="A432" s="9"/>
+      <c r="B432" s="15"/>
+      <c r="C432" s="18"/>
+      <c r="D432" s="17"/>
+      <c r="E432" s="18"/>
+      <c r="F432" s="19"/>
+    </row>
+    <row r="433" ht="16.35" customHeight="1">
+      <c r="A433" s="9"/>
+      <c r="B433" s="15"/>
+      <c r="C433" s="18"/>
+      <c r="D433" s="17"/>
+      <c r="E433" s="18"/>
+      <c r="F433" s="19"/>
+    </row>
+    <row r="434" ht="16.35" customHeight="1">
+      <c r="A434" s="9"/>
+      <c r="B434" s="15"/>
+      <c r="C434" s="18"/>
+      <c r="D434" s="17"/>
+      <c r="E434" s="18"/>
+      <c r="F434" s="19"/>
+    </row>
+    <row r="435" ht="16.35" customHeight="1">
+      <c r="A435" s="9"/>
+      <c r="B435" s="15"/>
+      <c r="C435" s="18"/>
+      <c r="D435" s="17"/>
+      <c r="E435" s="18"/>
+      <c r="F435" s="19"/>
+    </row>
+    <row r="436" ht="16.35" customHeight="1">
+      <c r="A436" s="9"/>
+      <c r="B436" s="15"/>
+      <c r="C436" s="18"/>
+      <c r="D436" s="17"/>
+      <c r="E436" s="18"/>
+      <c r="F436" s="19"/>
+    </row>
+    <row r="437" ht="16.35" customHeight="1">
+      <c r="A437" s="9"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="18"/>
+      <c r="D437" s="17"/>
+      <c r="E437" s="18"/>
+      <c r="F437" s="19"/>
+    </row>
+    <row r="438" ht="16.35" customHeight="1">
+      <c r="A438" s="9"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="18"/>
+      <c r="D438" s="17"/>
+      <c r="E438" s="18"/>
+      <c r="F438" s="19"/>
+    </row>
+    <row r="439" ht="16.35" customHeight="1">
+      <c r="A439" s="9"/>
+      <c r="B439" s="15"/>
+      <c r="C439" s="18"/>
+      <c r="D439" s="17"/>
+      <c r="E439" s="18"/>
+      <c r="F439" s="19"/>
+    </row>
+    <row r="440" ht="16.35" customHeight="1">
+      <c r="A440" s="9"/>
+      <c r="B440" s="15"/>
+      <c r="C440" s="18"/>
+      <c r="D440" s="17"/>
+      <c r="E440" s="18"/>
+      <c r="F440" s="19"/>
+    </row>
+    <row r="441" ht="16.35" customHeight="1">
+      <c r="A441" s="9"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="18"/>
+      <c r="D441" s="17"/>
+      <c r="E441" s="18"/>
+      <c r="F441" s="19"/>
+    </row>
+    <row r="442" ht="16.35" customHeight="1">
+      <c r="A442" s="9"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="18"/>
+      <c r="D442" s="17"/>
+      <c r="E442" s="18"/>
+      <c r="F442" s="19"/>
+    </row>
+    <row r="443" ht="16.35" customHeight="1">
+      <c r="A443" s="9"/>
+      <c r="B443" s="15"/>
+      <c r="C443" s="18"/>
+      <c r="D443" s="17"/>
+      <c r="E443" s="18"/>
+      <c r="F443" s="19"/>
+    </row>
+    <row r="444" ht="16.35" customHeight="1">
+      <c r="A444" s="9"/>
+      <c r="B444" s="15"/>
+      <c r="C444" s="18"/>
+      <c r="D444" s="17"/>
+      <c r="E444" s="18"/>
+      <c r="F444" s="19"/>
+    </row>
+    <row r="445" ht="16.35" customHeight="1">
+      <c r="A445" s="9"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="18"/>
+      <c r="D445" s="17"/>
+      <c r="E445" s="18"/>
+      <c r="F445" s="19"/>
+    </row>
+    <row r="446" ht="16.35" customHeight="1">
+      <c r="A446" s="9"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="18"/>
+      <c r="D446" s="17"/>
+      <c r="E446" s="18"/>
+      <c r="F446" s="19"/>
+    </row>
+    <row r="447" ht="16.35" customHeight="1">
+      <c r="A447" s="9"/>
+      <c r="B447" s="15"/>
+      <c r="C447" s="18"/>
+      <c r="D447" s="17"/>
+      <c r="E447" s="18"/>
+      <c r="F447" s="19"/>
+    </row>
+    <row r="448" ht="16.35" customHeight="1">
+      <c r="A448" s="9"/>
+      <c r="B448" s="15"/>
+      <c r="C448" s="18"/>
+      <c r="D448" s="17"/>
+      <c r="E448" s="18"/>
+      <c r="F448" s="19"/>
+    </row>
+    <row r="449" ht="16.35" customHeight="1">
+      <c r="A449" s="9"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="18"/>
+      <c r="D449" s="17"/>
+      <c r="E449" s="18"/>
+      <c r="F449" s="19"/>
+    </row>
+    <row r="450" ht="16.35" customHeight="1">
+      <c r="A450" s="9"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="18"/>
+      <c r="D450" s="17"/>
+      <c r="E450" s="18"/>
+      <c r="F450" s="19"/>
+    </row>
+    <row r="451" ht="16.35" customHeight="1">
+      <c r="A451" s="9"/>
+      <c r="B451" s="15"/>
+      <c r="C451" s="18"/>
+      <c r="D451" s="17"/>
+      <c r="E451" s="18"/>
+      <c r="F451" s="19"/>
+    </row>
+    <row r="452" ht="16.35" customHeight="1">
+      <c r="A452" s="9"/>
+      <c r="B452" s="15"/>
+      <c r="C452" s="18"/>
+      <c r="D452" s="17"/>
+      <c r="E452" s="18"/>
+      <c r="F452" s="19"/>
+    </row>
+    <row r="453" ht="16.35" customHeight="1">
+      <c r="A453" s="9"/>
+      <c r="B453" s="15"/>
+      <c r="C453" s="18"/>
+      <c r="D453" s="17"/>
+      <c r="E453" s="18"/>
+      <c r="F453" s="19"/>
+    </row>
+    <row r="454" ht="16.35" customHeight="1">
+      <c r="A454" s="9"/>
+      <c r="B454" s="15"/>
+      <c r="C454" s="18"/>
+      <c r="D454" s="17"/>
+      <c r="E454" s="18"/>
+      <c r="F454" s="19"/>
+    </row>
+    <row r="455" ht="16.35" customHeight="1">
+      <c r="A455" s="9"/>
+      <c r="B455" s="15"/>
+      <c r="C455" s="18"/>
+      <c r="D455" s="17"/>
+      <c r="E455" s="18"/>
+      <c r="F455" s="19"/>
+    </row>
+    <row r="456" ht="16.35" customHeight="1">
+      <c r="A456" s="9"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="18"/>
+      <c r="D456" s="17"/>
+      <c r="E456" s="18"/>
+      <c r="F456" s="19"/>
+    </row>
+    <row r="457" ht="16.35" customHeight="1">
+      <c r="A457" s="9"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="18"/>
+      <c r="D457" s="17"/>
+      <c r="E457" s="18"/>
+      <c r="F457" s="19"/>
+    </row>
+    <row r="458" ht="16.35" customHeight="1">
+      <c r="A458" s="9"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="18"/>
+      <c r="D458" s="17"/>
+      <c r="E458" s="18"/>
+      <c r="F458" s="19"/>
+    </row>
+    <row r="459" ht="16.35" customHeight="1">
+      <c r="A459" s="9"/>
+      <c r="B459" s="15"/>
+      <c r="C459" s="18"/>
+      <c r="D459" s="17"/>
+      <c r="E459" s="18"/>
+      <c r="F459" s="19"/>
+    </row>
+    <row r="460" ht="16.35" customHeight="1">
+      <c r="A460" s="9"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="18"/>
+      <c r="D460" s="17"/>
+      <c r="E460" s="18"/>
+      <c r="F460" s="19"/>
+    </row>
+    <row r="461" ht="16.35" customHeight="1">
+      <c r="A461" s="9"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="18"/>
+      <c r="D461" s="17"/>
+      <c r="E461" s="18"/>
+      <c r="F461" s="19"/>
+    </row>
+    <row r="462" ht="16.35" customHeight="1">
+      <c r="A462" s="9"/>
+      <c r="B462" s="15"/>
+      <c r="C462" s="18"/>
+      <c r="D462" s="17"/>
+      <c r="E462" s="18"/>
+      <c r="F462" s="19"/>
+    </row>
+    <row r="463" ht="16.35" customHeight="1">
+      <c r="A463" s="9"/>
+      <c r="B463" s="15"/>
+      <c r="C463" s="18"/>
+      <c r="D463" s="17"/>
+      <c r="E463" s="18"/>
+      <c r="F463" s="19"/>
+    </row>
+    <row r="464" ht="16.35" customHeight="1">
+      <c r="A464" s="9"/>
+      <c r="B464" s="15"/>
+      <c r="C464" s="18"/>
+      <c r="D464" s="17"/>
+      <c r="E464" s="18"/>
+      <c r="F464" s="19"/>
+    </row>
+    <row r="465" ht="16.35" customHeight="1">
+      <c r="A465" s="9"/>
+      <c r="B465" s="15"/>
+      <c r="C465" s="18"/>
+      <c r="D465" s="17"/>
+      <c r="E465" s="18"/>
+      <c r="F465" s="19"/>
+    </row>
+    <row r="466" ht="16.35" customHeight="1">
+      <c r="A466" s="9"/>
+      <c r="B466" s="15"/>
+      <c r="C466" s="18"/>
+      <c r="D466" s="17"/>
+      <c r="E466" s="18"/>
+      <c r="F466" s="19"/>
+    </row>
+    <row r="467" ht="16.35" customHeight="1">
+      <c r="A467" s="9"/>
+      <c r="B467" s="15"/>
+      <c r="C467" s="18"/>
+      <c r="D467" s="17"/>
+      <c r="E467" s="18"/>
+      <c r="F467" s="19"/>
+    </row>
+    <row r="468" ht="16.35" customHeight="1">
+      <c r="A468" s="9"/>
+      <c r="B468" s="15"/>
+      <c r="C468" s="18"/>
+      <c r="D468" s="17"/>
+      <c r="E468" s="18"/>
+      <c r="F468" s="19"/>
+    </row>
+    <row r="469" ht="16.35" customHeight="1">
+      <c r="A469" s="9"/>
+      <c r="B469" s="15"/>
+      <c r="C469" s="18"/>
+      <c r="D469" s="17"/>
+      <c r="E469" s="18"/>
+      <c r="F469" s="19"/>
+    </row>
+    <row r="470" ht="16.35" customHeight="1">
+      <c r="A470" s="9"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="18"/>
+      <c r="D470" s="17"/>
+      <c r="E470" s="18"/>
+      <c r="F470" s="19"/>
+    </row>
+    <row r="471" ht="16.35" customHeight="1">
+      <c r="A471" s="9"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="18"/>
+      <c r="D471" s="17"/>
+      <c r="E471" s="18"/>
+      <c r="F471" s="19"/>
+    </row>
+    <row r="472" ht="16.35" customHeight="1">
+      <c r="A472" s="9"/>
+      <c r="B472" s="15"/>
+      <c r="C472" s="18"/>
+      <c r="D472" s="17"/>
+      <c r="E472" s="18"/>
+      <c r="F472" s="19"/>
+    </row>
+    <row r="473" ht="16.35" customHeight="1">
+      <c r="A473" s="9"/>
+      <c r="B473" s="15"/>
+      <c r="C473" s="18"/>
+      <c r="D473" s="17"/>
+      <c r="E473" s="18"/>
+      <c r="F473" s="19"/>
+    </row>
+    <row r="474" ht="16.35" customHeight="1">
+      <c r="A474" s="9"/>
+      <c r="B474" s="15"/>
+      <c r="C474" s="18"/>
+      <c r="D474" s="17"/>
+      <c r="E474" s="18"/>
+      <c r="F474" s="19"/>
+    </row>
+    <row r="475" ht="16.35" customHeight="1">
+      <c r="A475" s="9"/>
+      <c r="B475" s="15"/>
+      <c r="C475" s="18"/>
+      <c r="D475" s="17"/>
+      <c r="E475" s="18"/>
+      <c r="F475" s="19"/>
+    </row>
+    <row r="476" ht="16.35" customHeight="1">
+      <c r="A476" s="9"/>
+      <c r="B476" s="15"/>
+      <c r="C476" s="18"/>
+      <c r="D476" s="17"/>
+      <c r="E476" s="18"/>
+      <c r="F476" s="19"/>
+    </row>
+    <row r="477" ht="16.35" customHeight="1">
+      <c r="A477" s="9"/>
+      <c r="B477" s="15"/>
+      <c r="C477" s="18"/>
+      <c r="D477" s="17"/>
+      <c r="E477" s="18"/>
+      <c r="F477" s="19"/>
+    </row>
+    <row r="478" ht="16.35" customHeight="1">
+      <c r="A478" s="9"/>
+      <c r="B478" s="15"/>
+      <c r="C478" s="18"/>
+      <c r="D478" s="17"/>
+      <c r="E478" s="18"/>
+      <c r="F478" s="19"/>
+    </row>
+    <row r="479" ht="16.35" customHeight="1">
+      <c r="A479" s="9"/>
+      <c r="B479" s="15"/>
+      <c r="C479" s="18"/>
+      <c r="D479" s="17"/>
+      <c r="E479" s="18"/>
+      <c r="F479" s="19"/>
+    </row>
+    <row r="480" ht="16.35" customHeight="1">
+      <c r="A480" s="9"/>
+      <c r="B480" s="15"/>
+      <c r="C480" s="18"/>
+      <c r="D480" s="17"/>
+      <c r="E480" s="18"/>
+      <c r="F480" s="19"/>
+    </row>
+    <row r="481" ht="16.35" customHeight="1">
+      <c r="A481" s="9"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="18"/>
+      <c r="D481" s="17"/>
+      <c r="E481" s="18"/>
+      <c r="F481" s="19"/>
+    </row>
+    <row r="482" ht="16.35" customHeight="1">
+      <c r="A482" s="9"/>
+      <c r="B482" s="15"/>
+      <c r="C482" s="18"/>
+      <c r="D482" s="17"/>
+      <c r="E482" s="18"/>
+      <c r="F482" s="19"/>
+    </row>
+    <row r="483" ht="16.35" customHeight="1">
+      <c r="A483" s="9"/>
+      <c r="B483" s="15"/>
+      <c r="C483" s="18"/>
+      <c r="D483" s="17"/>
+      <c r="E483" s="18"/>
+      <c r="F483" s="19"/>
+    </row>
+    <row r="484" ht="16.35" customHeight="1">
+      <c r="A484" s="9"/>
+      <c r="B484" s="15"/>
+      <c r="C484" s="18"/>
+      <c r="D484" s="17"/>
+      <c r="E484" s="18"/>
+      <c r="F484" s="19"/>
+    </row>
+    <row r="485" ht="16.35" customHeight="1">
+      <c r="A485" s="9"/>
+      <c r="B485" s="15"/>
+      <c r="C485" s="18"/>
+      <c r="D485" s="17"/>
+      <c r="E485" s="18"/>
+      <c r="F485" s="19"/>
+    </row>
+    <row r="486" ht="16.35" customHeight="1">
+      <c r="A486" s="9"/>
+      <c r="B486" s="15"/>
+      <c r="C486" s="18"/>
+      <c r="D486" s="17"/>
+      <c r="E486" s="18"/>
+      <c r="F486" s="19"/>
+    </row>
+    <row r="487" ht="16.35" customHeight="1">
+      <c r="A487" s="9"/>
+      <c r="B487" s="15"/>
+      <c r="C487" s="18"/>
+      <c r="D487" s="17"/>
+      <c r="E487" s="18"/>
+      <c r="F487" s="19"/>
+    </row>
+    <row r="488" ht="16.35" customHeight="1">
+      <c r="A488" s="9"/>
+      <c r="B488" s="15"/>
+      <c r="C488" s="18"/>
+      <c r="D488" s="17"/>
+      <c r="E488" s="18"/>
+      <c r="F488" s="19"/>
+    </row>
+    <row r="489" ht="16.35" customHeight="1">
+      <c r="A489" s="9"/>
+      <c r="B489" s="15"/>
+      <c r="C489" s="18"/>
+      <c r="D489" s="17"/>
+      <c r="E489" s="18"/>
+      <c r="F489" s="19"/>
+    </row>
+    <row r="490" ht="16.35" customHeight="1">
+      <c r="A490" s="9"/>
+      <c r="B490" s="15"/>
+      <c r="C490" s="18"/>
+      <c r="D490" s="17"/>
+      <c r="E490" s="18"/>
+      <c r="F490" s="19"/>
+    </row>
+    <row r="491" ht="16.35" customHeight="1">
+      <c r="A491" s="9"/>
+      <c r="B491" s="15"/>
+      <c r="C491" s="18"/>
+      <c r="D491" s="17"/>
+      <c r="E491" s="18"/>
+      <c r="F491" s="19"/>
+    </row>
+    <row r="492" ht="16.35" customHeight="1">
+      <c r="A492" s="9"/>
+      <c r="B492" s="15"/>
+      <c r="C492" s="18"/>
+      <c r="D492" s="17"/>
+      <c r="E492" s="18"/>
+      <c r="F492" s="19"/>
+    </row>
+    <row r="493" ht="16.35" customHeight="1">
+      <c r="A493" s="9"/>
+      <c r="B493" s="15"/>
+      <c r="C493" s="18"/>
+      <c r="D493" s="17"/>
+      <c r="E493" s="18"/>
+      <c r="F493" s="19"/>
+    </row>
+    <row r="494" ht="16.35" customHeight="1">
+      <c r="A494" s="9"/>
+      <c r="B494" s="15"/>
+      <c r="C494" s="18"/>
+      <c r="D494" s="17"/>
+      <c r="E494" s="18"/>
+      <c r="F494" s="19"/>
+    </row>
+    <row r="495" ht="16.35" customHeight="1">
+      <c r="A495" s="9"/>
+      <c r="B495" s="15"/>
+      <c r="C495" s="18"/>
+      <c r="D495" s="17"/>
+      <c r="E495" s="18"/>
+      <c r="F495" s="19"/>
+    </row>
+    <row r="496" ht="16.35" customHeight="1">
+      <c r="A496" s="9"/>
+      <c r="B496" s="15"/>
+      <c r="C496" s="18"/>
+      <c r="D496" s="17"/>
+      <c r="E496" s="18"/>
+      <c r="F496" s="19"/>
+    </row>
+    <row r="497" ht="16.35" customHeight="1">
+      <c r="A497" s="9"/>
+      <c r="B497" s="15"/>
+      <c r="C497" s="18"/>
+      <c r="D497" s="17"/>
+      <c r="E497" s="18"/>
+      <c r="F497" s="19"/>
+    </row>
+    <row r="498" ht="16.35" customHeight="1">
+      <c r="A498" s="9"/>
+      <c r="B498" s="15"/>
+      <c r="C498" s="18"/>
+      <c r="D498" s="17"/>
+      <c r="E498" s="18"/>
+      <c r="F498" s="19"/>
+    </row>
+    <row r="499" ht="16.35" customHeight="1">
+      <c r="A499" s="9"/>
+      <c r="B499" s="15"/>
+      <c r="C499" s="18"/>
+      <c r="D499" s="17"/>
+      <c r="E499" s="18"/>
+      <c r="F499" s="19"/>
+    </row>
+    <row r="500" ht="16.35" customHeight="1">
+      <c r="A500" s="9"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="18"/>
+      <c r="D500" s="17"/>
+      <c r="E500" s="18"/>
+      <c r="F500" s="19"/>
+    </row>
+    <row r="501" ht="16.35" customHeight="1">
+      <c r="A501" s="9"/>
+      <c r="B501" s="15"/>
+      <c r="C501" s="18"/>
+      <c r="D501" s="17"/>
+      <c r="E501" s="18"/>
+      <c r="F501" s="19"/>
+    </row>
+    <row r="502" ht="16.35" customHeight="1">
+      <c r="A502" s="9"/>
+      <c r="B502" s="15"/>
+      <c r="C502" s="18"/>
+      <c r="D502" s="17"/>
+      <c r="E502" s="18"/>
+      <c r="F502" s="19"/>
+    </row>
+    <row r="503" ht="16.35" customHeight="1">
+      <c r="A503" s="9"/>
+      <c r="B503" s="15"/>
+      <c r="C503" s="18"/>
+      <c r="D503" s="17"/>
+      <c r="E503" s="18"/>
+      <c r="F503" s="19"/>
+    </row>
+    <row r="504" ht="16.35" customHeight="1">
+      <c r="A504" s="9"/>
+      <c r="B504" s="15"/>
+      <c r="C504" s="18"/>
+      <c r="D504" s="17"/>
+      <c r="E504" s="18"/>
+      <c r="F504" s="19"/>
+    </row>
+    <row r="505" ht="16.35" customHeight="1">
+      <c r="A505" s="9"/>
+      <c r="B505" s="15"/>
+      <c r="C505" s="18"/>
+      <c r="D505" s="17"/>
+      <c r="E505" s="18"/>
+      <c r="F505" s="19"/>
+    </row>
+    <row r="506" ht="16.35" customHeight="1">
+      <c r="A506" s="9"/>
+      <c r="B506" s="15"/>
+      <c r="C506" s="18"/>
+      <c r="D506" s="17"/>
+      <c r="E506" s="18"/>
+      <c r="F506" s="19"/>
+    </row>
+    <row r="507" ht="16.35" customHeight="1">
+      <c r="A507" s="9"/>
+      <c r="B507" s="15"/>
+      <c r="C507" s="18"/>
+      <c r="D507" s="17"/>
+      <c r="E507" s="18"/>
+      <c r="F507" s="19"/>
+    </row>
+    <row r="508" ht="16.35" customHeight="1">
+      <c r="A508" s="9"/>
+      <c r="B508" s="15"/>
+      <c r="C508" s="18"/>
+      <c r="D508" s="17"/>
+      <c r="E508" s="18"/>
+      <c r="F508" s="19"/>
+    </row>
+    <row r="509" ht="16.35" customHeight="1">
+      <c r="A509" s="9"/>
+      <c r="B509" s="15"/>
+      <c r="C509" s="18"/>
+      <c r="D509" s="17"/>
+      <c r="E509" s="18"/>
+      <c r="F509" s="19"/>
+    </row>
+    <row r="510" ht="16.35" customHeight="1">
+      <c r="A510" s="9"/>
+      <c r="B510" s="15"/>
+      <c r="C510" s="18"/>
+      <c r="D510" s="17"/>
+      <c r="E510" s="18"/>
+      <c r="F510" s="19"/>
+    </row>
+    <row r="511" ht="16.35" customHeight="1">
+      <c r="A511" s="9"/>
+      <c r="B511" s="15"/>
+      <c r="C511" s="18"/>
+      <c r="D511" s="17"/>
+      <c r="E511" s="18"/>
+      <c r="F511" s="19"/>
+    </row>
+    <row r="512" ht="16.35" customHeight="1">
+      <c r="A512" s="9"/>
+      <c r="B512" s="15"/>
+      <c r="C512" s="18"/>
+      <c r="D512" s="17"/>
+      <c r="E512" s="18"/>
+      <c r="F512" s="19"/>
+    </row>
+    <row r="513" ht="16.35" customHeight="1">
+      <c r="A513" s="9"/>
+      <c r="B513" s="15"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="17"/>
+      <c r="E513" s="18"/>
+      <c r="F513" s="19"/>
+    </row>
+    <row r="514" ht="16.35" customHeight="1">
+      <c r="A514" s="9"/>
+      <c r="B514" s="15"/>
+      <c r="C514" s="18"/>
+      <c r="D514" s="17"/>
+      <c r="E514" s="18"/>
+      <c r="F514" s="19"/>
+    </row>
+    <row r="515" ht="16.35" customHeight="1">
+      <c r="A515" s="9"/>
+      <c r="B515" s="15"/>
+      <c r="C515" s="18"/>
+      <c r="D515" s="17"/>
+      <c r="E515" s="18"/>
+      <c r="F515" s="19"/>
+    </row>
+    <row r="516" ht="16.35" customHeight="1">
+      <c r="A516" s="9"/>
+      <c r="B516" s="15"/>
+      <c r="C516" s="18"/>
+      <c r="D516" s="17"/>
+      <c r="E516" s="18"/>
+      <c r="F516" s="19"/>
+    </row>
+    <row r="517" ht="16.35" customHeight="1">
+      <c r="A517" s="9"/>
+      <c r="B517" s="15"/>
+      <c r="C517" s="18"/>
+      <c r="D517" s="17"/>
+      <c r="E517" s="18"/>
+      <c r="F517" s="19"/>
+    </row>
+    <row r="518" ht="16.35" customHeight="1">
+      <c r="A518" s="9"/>
+      <c r="B518" s="15"/>
+      <c r="C518" s="18"/>
+      <c r="D518" s="17"/>
+      <c r="E518" s="18"/>
+      <c r="F518" s="19"/>
+    </row>
+    <row r="519" ht="16.35" customHeight="1">
+      <c r="A519" s="9"/>
+      <c r="B519" s="15"/>
+      <c r="C519" s="18"/>
+      <c r="D519" s="17"/>
+      <c r="E519" s="18"/>
+      <c r="F519" s="19"/>
+    </row>
+    <row r="520" ht="16.35" customHeight="1">
+      <c r="A520" s="9"/>
+      <c r="B520" s="15"/>
+      <c r="C520" s="18"/>
+      <c r="D520" s="17"/>
+      <c r="E520" s="18"/>
+      <c r="F520" s="19"/>
+    </row>
+    <row r="521" ht="16.35" customHeight="1">
+      <c r="A521" s="9"/>
+      <c r="B521" s="15"/>
+      <c r="C521" s="18"/>
+      <c r="D521" s="17"/>
+      <c r="E521" s="18"/>
+      <c r="F521" s="19"/>
+    </row>
+    <row r="522" ht="16.35" customHeight="1">
+      <c r="A522" s="9"/>
+      <c r="B522" s="15"/>
+      <c r="C522" s="18"/>
+      <c r="D522" s="17"/>
+      <c r="E522" s="18"/>
+      <c r="F522" s="19"/>
+    </row>
+    <row r="523" ht="16.35" customHeight="1">
+      <c r="A523" s="9"/>
+      <c r="B523" s="15"/>
+      <c r="C523" s="18"/>
+      <c r="D523" s="17"/>
+      <c r="E523" s="18"/>
+      <c r="F523" s="19"/>
+    </row>
+    <row r="524" ht="16.35" customHeight="1">
+      <c r="A524" s="9"/>
+      <c r="B524" s="15"/>
+      <c r="C524" s="18"/>
+      <c r="D524" s="17"/>
+      <c r="E524" s="18"/>
+      <c r="F524" s="19"/>
+    </row>
+    <row r="525" ht="16.35" customHeight="1">
+      <c r="A525" s="9"/>
+      <c r="B525" s="15"/>
+      <c r="C525" s="18"/>
+      <c r="D525" s="17"/>
+      <c r="E525" s="18"/>
+      <c r="F525" s="19"/>
+    </row>
+    <row r="526" ht="16.35" customHeight="1">
+      <c r="A526" s="9"/>
+      <c r="B526" s="15"/>
+      <c r="C526" s="18"/>
+      <c r="D526" s="17"/>
+      <c r="E526" s="18"/>
+      <c r="F526" s="19"/>
+    </row>
+    <row r="527" ht="16.35" customHeight="1">
+      <c r="A527" s="9"/>
+      <c r="B527" s="15"/>
+      <c r="C527" s="18"/>
+      <c r="D527" s="17"/>
+      <c r="E527" s="18"/>
+      <c r="F527" s="19"/>
+    </row>
+    <row r="528" ht="16.35" customHeight="1">
+      <c r="A528" s="9"/>
+      <c r="B528" s="15"/>
+      <c r="C528" s="18"/>
+      <c r="D528" s="17"/>
+      <c r="E528" s="18"/>
+      <c r="F528" s="19"/>
+    </row>
+    <row r="529" ht="16.35" customHeight="1">
+      <c r="A529" s="9"/>
+      <c r="B529" s="15"/>
+      <c r="C529" s="18"/>
+      <c r="D529" s="17"/>
+      <c r="E529" s="18"/>
+      <c r="F529" s="19"/>
+    </row>
+    <row r="530" ht="16.35" customHeight="1">
+      <c r="A530" s="9"/>
+      <c r="B530" s="15"/>
+      <c r="C530" s="18"/>
+      <c r="D530" s="17"/>
+      <c r="E530" s="18"/>
+      <c r="F530" s="19"/>
+    </row>
+    <row r="531" ht="16.35" customHeight="1">
+      <c r="A531" s="9"/>
+      <c r="B531" s="15"/>
+      <c r="C531" s="18"/>
+      <c r="D531" s="17"/>
+      <c r="E531" s="18"/>
+      <c r="F531" s="19"/>
+    </row>
+    <row r="532" ht="16.35" customHeight="1">
+      <c r="A532" s="9"/>
+      <c r="B532" s="15"/>
+      <c r="C532" s="18"/>
+      <c r="D532" s="17"/>
+      <c r="E532" s="18"/>
+      <c r="F532" s="19"/>
+    </row>
+    <row r="533" ht="16.35" customHeight="1">
+      <c r="A533" s="9"/>
+      <c r="B533" s="15"/>
+      <c r="C533" s="18"/>
+      <c r="D533" s="17"/>
+      <c r="E533" s="18"/>
+      <c r="F533" s="19"/>
+    </row>
+    <row r="534" ht="16.35" customHeight="1">
+      <c r="A534" s="9"/>
+      <c r="B534" s="15"/>
+      <c r="C534" s="18"/>
+      <c r="D534" s="17"/>
+      <c r="E534" s="18"/>
+      <c r="F534" s="19"/>
+    </row>
+    <row r="535" ht="16.35" customHeight="1">
+      <c r="A535" s="9"/>
+      <c r="B535" s="15"/>
+      <c r="C535" s="18"/>
+      <c r="D535" s="17"/>
+      <c r="E535" s="18"/>
+      <c r="F535" s="19"/>
+    </row>
+    <row r="536" ht="16.35" customHeight="1">
+      <c r="A536" s="9"/>
+      <c r="B536" s="15"/>
+      <c r="C536" s="18"/>
+      <c r="D536" s="17"/>
+      <c r="E536" s="18"/>
+      <c r="F536" s="19"/>
+    </row>
+    <row r="537" ht="16.35" customHeight="1">
+      <c r="A537" s="9"/>
+      <c r="B537" s="15"/>
+      <c r="C537" s="18"/>
+      <c r="D537" s="17"/>
+      <c r="E537" s="18"/>
+      <c r="F537" s="19"/>
+    </row>
+    <row r="538" ht="16.35" customHeight="1">
+      <c r="A538" s="9"/>
+      <c r="B538" s="15"/>
+      <c r="C538" s="18"/>
+      <c r="D538" s="17"/>
+      <c r="E538" s="18"/>
+      <c r="F538" s="19"/>
+    </row>
+    <row r="539" ht="16.35" customHeight="1">
+      <c r="A539" s="9"/>
+      <c r="B539" s="15"/>
+      <c r="C539" s="18"/>
+      <c r="D539" s="17"/>
+      <c r="E539" s="18"/>
+      <c r="F539" s="19"/>
+    </row>
+    <row r="540" ht="16.35" customHeight="1">
+      <c r="A540" s="9"/>
+      <c r="B540" s="15"/>
+      <c r="C540" s="18"/>
+      <c r="D540" s="17"/>
+      <c r="E540" s="18"/>
+      <c r="F540" s="19"/>
+    </row>
+    <row r="541" ht="16.35" customHeight="1">
+      <c r="A541" s="9"/>
+      <c r="B541" s="15"/>
+      <c r="C541" s="18"/>
+      <c r="D541" s="17"/>
+      <c r="E541" s="18"/>
+      <c r="F541" s="19"/>
+    </row>
+    <row r="542" ht="16.35" customHeight="1">
+      <c r="A542" s="9"/>
+      <c r="B542" s="15"/>
+      <c r="C542" s="18"/>
+      <c r="D542" s="17"/>
+      <c r="E542" s="18"/>
+      <c r="F542" s="19"/>
+    </row>
+    <row r="543" ht="16.35" customHeight="1">
+      <c r="A543" s="9"/>
+      <c r="B543" s="15"/>
+      <c r="C543" s="18"/>
+      <c r="D543" s="17"/>
+      <c r="E543" s="18"/>
+      <c r="F543" s="19"/>
+    </row>
+    <row r="544" ht="16.35" customHeight="1">
+      <c r="A544" s="9"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="18"/>
+      <c r="D544" s="17"/>
+      <c r="E544" s="18"/>
+      <c r="F544" s="19"/>
+    </row>
+    <row r="545" ht="16.35" customHeight="1">
+      <c r="A545" s="9"/>
+      <c r="B545" s="15"/>
+      <c r="C545" s="18"/>
+      <c r="D545" s="17"/>
+      <c r="E545" s="18"/>
+      <c r="F545" s="19"/>
+    </row>
+    <row r="546" ht="16.35" customHeight="1">
+      <c r="A546" s="9"/>
+      <c r="B546" s="15"/>
+      <c r="C546" s="18"/>
+      <c r="D546" s="17"/>
+      <c r="E546" s="18"/>
+      <c r="F546" s="19"/>
+    </row>
+    <row r="547" ht="16.35" customHeight="1">
+      <c r="A547" s="9"/>
+      <c r="B547" s="15"/>
+      <c r="C547" s="18"/>
+      <c r="D547" s="17"/>
+      <c r="E547" s="18"/>
+      <c r="F547" s="19"/>
+    </row>
+    <row r="548" ht="16.35" customHeight="1">
+      <c r="A548" s="9"/>
+      <c r="B548" s="15"/>
+      <c r="C548" s="18"/>
+      <c r="D548" s="17"/>
+      <c r="E548" s="18"/>
+      <c r="F548" s="19"/>
+    </row>
+    <row r="549" ht="16.35" customHeight="1">
+      <c r="A549" s="9"/>
+      <c r="B549" s="15"/>
+      <c r="C549" s="18"/>
+      <c r="D549" s="17"/>
+      <c r="E549" s="18"/>
+      <c r="F549" s="19"/>
+    </row>
+    <row r="550" ht="16.35" customHeight="1">
+      <c r="A550" s="9"/>
+      <c r="B550" s="15"/>
+      <c r="C550" s="18"/>
+      <c r="D550" s="17"/>
+      <c r="E550" s="18"/>
+      <c r="F550" s="19"/>
+    </row>
+    <row r="551" ht="16.35" customHeight="1">
+      <c r="A551" s="9"/>
+      <c r="B551" s="15"/>
+      <c r="C551" s="18"/>
+      <c r="D551" s="17"/>
+      <c r="E551" s="18"/>
+      <c r="F551" s="19"/>
+    </row>
+    <row r="552" ht="16.35" customHeight="1">
+      <c r="A552" s="9"/>
+      <c r="B552" s="15"/>
+      <c r="C552" s="18"/>
+      <c r="D552" s="17"/>
+      <c r="E552" s="18"/>
+      <c r="F552" s="19"/>
+    </row>
+    <row r="553" ht="16.35" customHeight="1">
+      <c r="A553" s="9"/>
+      <c r="B553" s="15"/>
+      <c r="C553" s="18"/>
+      <c r="D553" s="17"/>
+      <c r="E553" s="18"/>
+      <c r="F553" s="19"/>
+    </row>
+    <row r="554" ht="16.35" customHeight="1">
+      <c r="A554" s="9"/>
+      <c r="B554" s="15"/>
+      <c r="C554" s="18"/>
+      <c r="D554" s="17"/>
+      <c r="E554" s="18"/>
+      <c r="F554" s="19"/>
+    </row>
+    <row r="555" ht="16.35" customHeight="1">
+      <c r="A555" s="9"/>
+      <c r="B555" s="15"/>
+      <c r="C555" s="18"/>
+      <c r="D555" s="17"/>
+      <c r="E555" s="18"/>
+      <c r="F555" s="19"/>
+    </row>
+    <row r="556" ht="16.35" customHeight="1">
+      <c r="A556" s="9"/>
+      <c r="B556" s="15"/>
+      <c r="C556" s="18"/>
+      <c r="D556" s="17"/>
+      <c r="E556" s="18"/>
+      <c r="F556" s="19"/>
+    </row>
+    <row r="557" ht="16.35" customHeight="1">
+      <c r="A557" s="9"/>
+      <c r="B557" s="15"/>
+      <c r="C557" s="18"/>
+      <c r="D557" s="17"/>
+      <c r="E557" s="18"/>
+      <c r="F557" s="19"/>
+    </row>
+    <row r="558" ht="16.35" customHeight="1">
+      <c r="A558" s="9"/>
+      <c r="B558" s="15"/>
+      <c r="C558" s="18"/>
+      <c r="D558" s="17"/>
+      <c r="E558" s="18"/>
+      <c r="F558" s="19"/>
+    </row>
+    <row r="559" ht="16.35" customHeight="1">
+      <c r="A559" s="9"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="18"/>
+      <c r="D559" s="17"/>
+      <c r="E559" s="18"/>
+      <c r="F559" s="19"/>
+    </row>
+    <row r="560" ht="16.35" customHeight="1">
+      <c r="A560" s="9"/>
+      <c r="B560" s="15"/>
+      <c r="C560" s="18"/>
+      <c r="D560" s="17"/>
+      <c r="E560" s="18"/>
+      <c r="F560" s="19"/>
+    </row>
+    <row r="561" ht="16.35" customHeight="1">
+      <c r="A561" s="9"/>
+      <c r="B561" s="15"/>
+      <c r="C561" s="18"/>
+      <c r="D561" s="17"/>
+      <c r="E561" s="18"/>
+      <c r="F561" s="19"/>
+    </row>
+    <row r="562" ht="16.35" customHeight="1">
+      <c r="A562" s="9"/>
+      <c r="B562" s="15"/>
+      <c r="C562" s="18"/>
+      <c r="D562" s="17"/>
+      <c r="E562" s="18"/>
+      <c r="F562" s="19"/>
+    </row>
+    <row r="563" ht="16.35" customHeight="1">
+      <c r="A563" s="9"/>
+      <c r="B563" s="15"/>
+      <c r="C563" s="18"/>
+      <c r="D563" s="17"/>
+      <c r="E563" s="18"/>
+      <c r="F563" s="19"/>
+    </row>
+    <row r="564" ht="16.35" customHeight="1">
+      <c r="A564" s="9"/>
+      <c r="B564" s="15"/>
+      <c r="C564" s="18"/>
+      <c r="D564" s="17"/>
+      <c r="E564" s="18"/>
+      <c r="F564" s="19"/>
+    </row>
+    <row r="565" ht="16.35" customHeight="1">
+      <c r="A565" s="9"/>
+      <c r="B565" s="15"/>
+      <c r="C565" s="18"/>
+      <c r="D565" s="17"/>
+      <c r="E565" s="18"/>
+      <c r="F565" s="19"/>
+    </row>
+    <row r="566" ht="16.35" customHeight="1">
+      <c r="A566" s="9"/>
+      <c r="B566" s="15"/>
+      <c r="C566" s="18"/>
+      <c r="D566" s="17"/>
+      <c r="E566" s="18"/>
+      <c r="F566" s="19"/>
+    </row>
+    <row r="567" ht="16.35" customHeight="1">
+      <c r="A567" s="9"/>
+      <c r="B567" s="15"/>
+      <c r="C567" s="18"/>
+      <c r="D567" s="17"/>
+      <c r="E567" s="18"/>
+      <c r="F567" s="19"/>
+    </row>
+    <row r="568" ht="16.35" customHeight="1">
+      <c r="A568" s="9"/>
+      <c r="B568" s="15"/>
+      <c r="C568" s="18"/>
+      <c r="D568" s="17"/>
+      <c r="E568" s="18"/>
+      <c r="F568" s="19"/>
+    </row>
+    <row r="569" ht="16.35" customHeight="1">
+      <c r="A569" s="9"/>
+      <c r="B569" s="15"/>
+      <c r="C569" s="18"/>
+      <c r="D569" s="17"/>
+      <c r="E569" s="18"/>
+      <c r="F569" s="19"/>
+    </row>
+    <row r="570" ht="16.35" customHeight="1">
+      <c r="A570" s="9"/>
+      <c r="B570" s="15"/>
+      <c r="C570" s="18"/>
+      <c r="D570" s="17"/>
+      <c r="E570" s="18"/>
+      <c r="F570" s="19"/>
+    </row>
+    <row r="571" ht="16.35" customHeight="1">
+      <c r="A571" s="9"/>
+      <c r="B571" s="15"/>
+      <c r="C571" s="18"/>
+      <c r="D571" s="17"/>
+      <c r="E571" s="18"/>
+      <c r="F571" s="19"/>
+    </row>
+    <row r="572" ht="16.35" customHeight="1">
+      <c r="A572" s="9"/>
+      <c r="B572" s="15"/>
+      <c r="C572" s="18"/>
+      <c r="D572" s="17"/>
+      <c r="E572" s="18"/>
+      <c r="F572" s="19"/>
+    </row>
+    <row r="573" ht="16.35" customHeight="1">
+      <c r="A573" s="9"/>
+      <c r="B573" s="15"/>
+      <c r="C573" s="18"/>
+      <c r="D573" s="17"/>
+      <c r="E573" s="18"/>
+      <c r="F573" s="19"/>
+    </row>
+    <row r="574" ht="16.35" customHeight="1">
+      <c r="A574" s="9"/>
+      <c r="B574" s="15"/>
+      <c r="C574" s="18"/>
+      <c r="D574" s="17"/>
+      <c r="E574" s="18"/>
+      <c r="F574" s="19"/>
+    </row>
+    <row r="575" ht="16.35" customHeight="1">
+      <c r="A575" s="9"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="18"/>
+      <c r="D575" s="17"/>
+      <c r="E575" s="18"/>
+      <c r="F575" s="19"/>
+    </row>
+    <row r="576" ht="16.35" customHeight="1">
+      <c r="A576" s="9"/>
+      <c r="B576" s="15"/>
+      <c r="C576" s="18"/>
+      <c r="D576" s="17"/>
+      <c r="E576" s="18"/>
+      <c r="F576" s="19"/>
+    </row>
+    <row r="577" ht="16.35" customHeight="1">
+      <c r="A577" s="9"/>
+      <c r="B577" s="15"/>
+      <c r="C577" s="18"/>
+      <c r="D577" s="17"/>
+      <c r="E577" s="18"/>
+      <c r="F577" s="19"/>
+    </row>
+    <row r="578" ht="16.35" customHeight="1">
+      <c r="A578" s="9"/>
+      <c r="B578" s="15"/>
+      <c r="C578" s="18"/>
+      <c r="D578" s="17"/>
+      <c r="E578" s="18"/>
+      <c r="F578" s="19"/>
+    </row>
+    <row r="579" ht="16.35" customHeight="1">
+      <c r="A579" s="9"/>
+      <c r="B579" s="15"/>
+      <c r="C579" s="18"/>
+      <c r="D579" s="17"/>
+      <c r="E579" s="18"/>
+      <c r="F579" s="19"/>
+    </row>
+    <row r="580" ht="16.35" customHeight="1">
+      <c r="A580" s="9"/>
+      <c r="B580" s="15"/>
+      <c r="C580" s="18"/>
+      <c r="D580" s="17"/>
+      <c r="E580" s="18"/>
+      <c r="F580" s="19"/>
+    </row>
+    <row r="581" ht="16.35" customHeight="1">
+      <c r="A581" s="9"/>
+      <c r="B581" s="15"/>
+      <c r="C581" s="18"/>
+      <c r="D581" s="17"/>
+      <c r="E581" s="18"/>
+      <c r="F581" s="19"/>
+    </row>
+    <row r="582" ht="16.35" customHeight="1">
+      <c r="A582" s="9"/>
+      <c r="B582" s="15"/>
+      <c r="C582" s="18"/>
+      <c r="D582" s="17"/>
+      <c r="E582" s="18"/>
+      <c r="F582" s="19"/>
+    </row>
+    <row r="583" ht="16.35" customHeight="1">
+      <c r="A583" s="9"/>
+      <c r="B583" s="15"/>
+      <c r="C583" s="18"/>
+      <c r="D583" s="17"/>
+      <c r="E583" s="18"/>
+      <c r="F583" s="19"/>
+    </row>
+    <row r="584" ht="16.35" customHeight="1">
+      <c r="A584" s="9"/>
+      <c r="B584" s="15"/>
+      <c r="C584" s="18"/>
+      <c r="D584" s="17"/>
+      <c r="E584" s="18"/>
+      <c r="F584" s="19"/>
+    </row>
+    <row r="585" ht="16.35" customHeight="1">
+      <c r="A585" s="9"/>
+      <c r="B585" s="15"/>
+      <c r="C585" s="18"/>
+      <c r="D585" s="17"/>
+      <c r="E585" s="18"/>
+      <c r="F585" s="19"/>
+    </row>
+    <row r="586" ht="16.35" customHeight="1">
+      <c r="A586" s="9"/>
+      <c r="B586" s="15"/>
+      <c r="C586" s="18"/>
+      <c r="D586" s="17"/>
+      <c r="E586" s="18"/>
+      <c r="F586" s="19"/>
+    </row>
+    <row r="587" ht="16.35" customHeight="1">
+      <c r="A587" s="9"/>
+      <c r="B587" s="15"/>
+      <c r="C587" s="18"/>
+      <c r="D587" s="17"/>
+      <c r="E587" s="18"/>
+      <c r="F587" s="19"/>
+    </row>
+    <row r="588" ht="16.35" customHeight="1">
+      <c r="A588" s="9"/>
+      <c r="B588" s="15"/>
+      <c r="C588" s="18"/>
+      <c r="D588" s="17"/>
+      <c r="E588" s="18"/>
+      <c r="F588" s="19"/>
+    </row>
+    <row r="589" ht="16.35" customHeight="1">
+      <c r="A589" s="9"/>
+      <c r="B589" s="15"/>
+      <c r="C589" s="18"/>
+      <c r="D589" s="17"/>
+      <c r="E589" s="18"/>
+      <c r="F589" s="19"/>
+    </row>
+    <row r="590" ht="16.35" customHeight="1">
+      <c r="A590" s="9"/>
+      <c r="B590" s="15"/>
+      <c r="C590" s="18"/>
+      <c r="D590" s="17"/>
+      <c r="E590" s="18"/>
+      <c r="F590" s="19"/>
+    </row>
+    <row r="591" ht="16.35" customHeight="1">
+      <c r="A591" s="9"/>
+      <c r="B591" s="15"/>
+      <c r="C591" s="18"/>
+      <c r="D591" s="17"/>
+      <c r="E591" s="18"/>
+      <c r="F591" s="19"/>
+    </row>
+    <row r="592" ht="16.35" customHeight="1">
+      <c r="A592" s="9"/>
+      <c r="B592" s="15"/>
+      <c r="C592" s="18"/>
+      <c r="D592" s="17"/>
+      <c r="E592" s="18"/>
+      <c r="F592" s="19"/>
+    </row>
+    <row r="593" ht="16.35" customHeight="1">
+      <c r="A593" s="9"/>
+      <c r="B593" s="15"/>
+      <c r="C593" s="18"/>
+      <c r="D593" s="17"/>
+      <c r="E593" s="18"/>
+      <c r="F593" s="19"/>
+    </row>
+    <row r="594" ht="16.35" customHeight="1">
+      <c r="A594" s="9"/>
+      <c r="B594" s="15"/>
+      <c r="C594" s="18"/>
+      <c r="D594" s="17"/>
+      <c r="E594" s="18"/>
+      <c r="F594" s="19"/>
+    </row>
+    <row r="595" ht="16.35" customHeight="1">
+      <c r="A595" s="9"/>
+      <c r="B595" s="15"/>
+      <c r="C595" s="18"/>
+      <c r="D595" s="17"/>
+      <c r="E595" s="18"/>
+      <c r="F595" s="19"/>
+    </row>
+    <row r="596" ht="16.35" customHeight="1">
+      <c r="A596" s="9"/>
+      <c r="B596" s="15"/>
+      <c r="C596" s="18"/>
+      <c r="D596" s="17"/>
+      <c r="E596" s="18"/>
+      <c r="F596" s="19"/>
+    </row>
+    <row r="597" ht="16.35" customHeight="1">
+      <c r="A597" s="9"/>
+      <c r="B597" s="15"/>
+      <c r="C597" s="18"/>
+      <c r="D597" s="17"/>
+      <c r="E597" s="18"/>
+      <c r="F597" s="19"/>
+    </row>
+    <row r="598" ht="16.35" customHeight="1">
+      <c r="A598" s="9"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="18"/>
+      <c r="D598" s="17"/>
+      <c r="E598" s="18"/>
+      <c r="F598" s="19"/>
+    </row>
+    <row r="599" ht="16.35" customHeight="1">
+      <c r="A599" s="9"/>
+      <c r="B599" s="15"/>
+      <c r="C599" s="18"/>
+      <c r="D599" s="17"/>
+      <c r="E599" s="18"/>
+      <c r="F599" s="19"/>
+    </row>
+    <row r="600" ht="16.35" customHeight="1">
+      <c r="A600" s="9"/>
+      <c r="B600" s="15"/>
+      <c r="C600" s="18"/>
+      <c r="D600" s="17"/>
+      <c r="E600" s="18"/>
+      <c r="F600" s="19"/>
+    </row>
+    <row r="601" ht="16.35" customHeight="1">
+      <c r="A601" s="9"/>
+      <c r="B601" s="15"/>
+      <c r="C601" s="18"/>
+      <c r="D601" s="17"/>
+      <c r="E601" s="18"/>
+      <c r="F601" s="19"/>
+    </row>
+    <row r="602" ht="16.35" customHeight="1">
+      <c r="A602" s="9"/>
+      <c r="B602" s="15"/>
+      <c r="C602" s="18"/>
+      <c r="D602" s="17"/>
+      <c r="E602" s="18"/>
+      <c r="F602" s="19"/>
+    </row>
+    <row r="603" ht="16.35" customHeight="1">
+      <c r="A603" s="9"/>
+      <c r="B603" s="15"/>
+      <c r="C603" s="18"/>
+      <c r="D603" s="17"/>
+      <c r="E603" s="18"/>
+      <c r="F603" s="19"/>
+    </row>
+    <row r="604" ht="16.35" customHeight="1">
+      <c r="A604" s="9"/>
+      <c r="B604" s="15"/>
+      <c r="C604" s="18"/>
+      <c r="D604" s="17"/>
+      <c r="E604" s="18"/>
+      <c r="F604" s="19"/>
+    </row>
+    <row r="605" ht="16.35" customHeight="1">
+      <c r="A605" s="9"/>
+      <c r="B605" s="15"/>
+      <c r="C605" s="18"/>
+      <c r="D605" s="17"/>
+      <c r="E605" s="18"/>
+      <c r="F605" s="19"/>
+    </row>
+    <row r="606" ht="16.35" customHeight="1">
+      <c r="A606" s="9"/>
+      <c r="B606" s="15"/>
+      <c r="C606" s="18"/>
+      <c r="D606" s="17"/>
+      <c r="E606" s="18"/>
+      <c r="F606" s="19"/>
+    </row>
+    <row r="607" ht="16.35" customHeight="1">
+      <c r="A607" s="9"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="18"/>
+      <c r="D607" s="17"/>
+      <c r="E607" s="18"/>
+      <c r="F607" s="19"/>
+    </row>
+    <row r="608" ht="16.35" customHeight="1">
+      <c r="A608" s="9"/>
+      <c r="B608" s="15"/>
+      <c r="C608" s="18"/>
+      <c r="D608" s="17"/>
+      <c r="E608" s="18"/>
+      <c r="F608" s="19"/>
+    </row>
+    <row r="609" ht="16.35" customHeight="1">
+      <c r="A609" s="9"/>
+      <c r="B609" s="15"/>
+      <c r="C609" s="18"/>
+      <c r="D609" s="17"/>
+      <c r="E609" s="18"/>
+      <c r="F609" s="19"/>
+    </row>
+    <row r="610" ht="16.35" customHeight="1">
+      <c r="A610" s="9"/>
+      <c r="B610" s="15"/>
+      <c r="C610" s="18"/>
+      <c r="D610" s="17"/>
+      <c r="E610" s="18"/>
+      <c r="F610" s="19"/>
+    </row>
+    <row r="611" ht="16.35" customHeight="1">
+      <c r="A611" s="9"/>
+      <c r="B611" s="15"/>
+      <c r="C611" s="18"/>
+      <c r="D611" s="17"/>
+      <c r="E611" s="18"/>
+      <c r="F611" s="19"/>
+    </row>
+    <row r="612" ht="16.35" customHeight="1">
+      <c r="A612" s="9"/>
+      <c r="B612" s="15"/>
+      <c r="C612" s="18"/>
+      <c r="D612" s="17"/>
+      <c r="E612" s="18"/>
+      <c r="F612" s="19"/>
+    </row>
+    <row r="613" ht="16.35" customHeight="1">
+      <c r="A613" s="9"/>
+      <c r="B613" s="15"/>
+      <c r="C613" s="18"/>
+      <c r="D613" s="17"/>
+      <c r="E613" s="18"/>
+      <c r="F613" s="19"/>
+    </row>
+    <row r="614" ht="16.35" customHeight="1">
+      <c r="A614" s="9"/>
+      <c r="B614" s="15"/>
+      <c r="C614" s="18"/>
+      <c r="D614" s="17"/>
+      <c r="E614" s="18"/>
+      <c r="F614" s="19"/>
+    </row>
+    <row r="615" ht="16.35" customHeight="1">
+      <c r="A615" s="9"/>
+      <c r="B615" s="15"/>
+      <c r="C615" s="18"/>
+      <c r="D615" s="17"/>
+      <c r="E615" s="18"/>
+      <c r="F615" s="19"/>
+    </row>
+    <row r="616" ht="16.35" customHeight="1">
+      <c r="A616" s="9"/>
+      <c r="B616" s="15"/>
+      <c r="C616" s="18"/>
+      <c r="D616" s="17"/>
+      <c r="E616" s="18"/>
+      <c r="F616" s="19"/>
+    </row>
+    <row r="617" ht="16.35" customHeight="1">
+      <c r="A617" s="9"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="18"/>
+      <c r="D617" s="17"/>
+      <c r="E617" s="18"/>
+      <c r="F617" s="19"/>
+    </row>
+    <row r="618" ht="16.35" customHeight="1">
+      <c r="A618" s="9"/>
+      <c r="B618" s="15"/>
+      <c r="C618" s="18"/>
+      <c r="D618" s="17"/>
+      <c r="E618" s="18"/>
+      <c r="F618" s="19"/>
+    </row>
+    <row r="619" ht="16.35" customHeight="1">
+      <c r="A619" s="9"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="18"/>
+      <c r="D619" s="17"/>
+      <c r="E619" s="18"/>
+      <c r="F619" s="19"/>
+    </row>
+    <row r="620" ht="16.35" customHeight="1">
+      <c r="A620" s="9"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="18"/>
+      <c r="D620" s="17"/>
+      <c r="E620" s="18"/>
+      <c r="F620" s="19"/>
+    </row>
+    <row r="621" ht="16.35" customHeight="1">
+      <c r="A621" s="9"/>
+      <c r="B621" s="15"/>
+      <c r="C621" s="18"/>
+      <c r="D621" s="17"/>
+      <c r="E621" s="18"/>
+      <c r="F621" s="19"/>
+    </row>
+    <row r="622" ht="16.35" customHeight="1">
+      <c r="A622" s="9"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="18"/>
+      <c r="D622" s="17"/>
+      <c r="E622" s="18"/>
+      <c r="F622" s="19"/>
+    </row>
+    <row r="623" ht="16.35" customHeight="1">
+      <c r="A623" s="9"/>
+      <c r="B623" s="15"/>
+      <c r="C623" s="18"/>
+      <c r="D623" s="17"/>
+      <c r="E623" s="18"/>
+      <c r="F623" s="19"/>
+    </row>
+    <row r="624" ht="16.35" customHeight="1">
+      <c r="A624" s="9"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="18"/>
+      <c r="D624" s="17"/>
+      <c r="E624" s="18"/>
+      <c r="F624" s="19"/>
+    </row>
+    <row r="625" ht="16.35" customHeight="1">
+      <c r="A625" s="9"/>
+      <c r="B625" s="15"/>
+      <c r="C625" s="18"/>
+      <c r="D625" s="17"/>
+      <c r="E625" s="18"/>
+      <c r="F625" s="19"/>
+    </row>
+    <row r="626" ht="16.35" customHeight="1">
+      <c r="A626" s="9"/>
+      <c r="B626" s="15"/>
+      <c r="C626" s="18"/>
+      <c r="D626" s="17"/>
+      <c r="E626" s="18"/>
+      <c r="F626" s="19"/>
+    </row>
+    <row r="627" ht="16.35" customHeight="1">
+      <c r="A627" s="9"/>
+      <c r="B627" s="15"/>
+      <c r="C627" s="18"/>
+      <c r="D627" s="17"/>
+      <c r="E627" s="18"/>
+      <c r="F627" s="19"/>
+    </row>
+    <row r="628" ht="16.35" customHeight="1">
+      <c r="A628" s="9"/>
+      <c r="B628" s="15"/>
+      <c r="C628" s="18"/>
+      <c r="D628" s="17"/>
+      <c r="E628" s="18"/>
+      <c r="F628" s="19"/>
+    </row>
+    <row r="629" ht="16.35" customHeight="1">
+      <c r="A629" s="9"/>
+      <c r="B629" s="15"/>
+      <c r="C629" s="18"/>
+      <c r="D629" s="17"/>
+      <c r="E629" s="18"/>
+      <c r="F629" s="19"/>
+    </row>
+    <row r="630" ht="16.35" customHeight="1">
+      <c r="A630" s="9"/>
+      <c r="B630" s="15"/>
+      <c r="C630" s="18"/>
+      <c r="D630" s="17"/>
+      <c r="E630" s="18"/>
+      <c r="F630" s="19"/>
+    </row>
+    <row r="631" ht="16.35" customHeight="1">
+      <c r="A631" s="9"/>
+      <c r="B631" s="15"/>
+      <c r="C631" s="18"/>
+      <c r="D631" s="17"/>
+      <c r="E631" s="18"/>
+      <c r="F631" s="19"/>
+    </row>
+    <row r="632" ht="16.35" customHeight="1">
+      <c r="A632" s="9"/>
+      <c r="B632" s="15"/>
+      <c r="C632" s="18"/>
+      <c r="D632" s="17"/>
+      <c r="E632" s="18"/>
+      <c r="F632" s="19"/>
+    </row>
+    <row r="633" ht="16.35" customHeight="1">
+      <c r="A633" s="9"/>
+      <c r="B633" s="15"/>
+      <c r="C633" s="18"/>
+      <c r="D633" s="17"/>
+      <c r="E633" s="18"/>
+      <c r="F633" s="19"/>
+    </row>
+    <row r="634" ht="16.35" customHeight="1">
+      <c r="A634" s="9"/>
+      <c r="B634" s="15"/>
+      <c r="C634" s="18"/>
+      <c r="D634" s="17"/>
+      <c r="E634" s="18"/>
+      <c r="F634" s="19"/>
+    </row>
+    <row r="635" ht="16.35" customHeight="1">
+      <c r="A635" s="9"/>
+      <c r="B635" s="15"/>
+      <c r="C635" s="18"/>
+      <c r="D635" s="17"/>
+      <c r="E635" s="18"/>
+      <c r="F635" s="19"/>
+    </row>
+    <row r="636" ht="16.35" customHeight="1">
+      <c r="A636" s="9"/>
+      <c r="B636" s="15"/>
+      <c r="C636" s="18"/>
+      <c r="D636" s="17"/>
+      <c r="E636" s="18"/>
+      <c r="F636" s="19"/>
+    </row>
+    <row r="637" ht="16.35" customHeight="1">
+      <c r="A637" s="9"/>
+      <c r="B637" s="15"/>
+      <c r="C637" s="18"/>
+      <c r="D637" s="17"/>
+      <c r="E637" s="18"/>
+      <c r="F637" s="19"/>
+    </row>
+    <row r="638" ht="16.35" customHeight="1">
+      <c r="A638" s="9"/>
+      <c r="B638" s="15"/>
+      <c r="C638" s="18"/>
+      <c r="D638" s="17"/>
+      <c r="E638" s="18"/>
+      <c r="F638" s="19"/>
+    </row>
+    <row r="639" ht="16.35" customHeight="1">
+      <c r="A639" s="9"/>
+      <c r="B639" s="15"/>
+      <c r="C639" s="18"/>
+      <c r="D639" s="17"/>
+      <c r="E639" s="18"/>
+      <c r="F639" s="19"/>
+    </row>
+    <row r="640" ht="16.35" customHeight="1">
+      <c r="A640" s="9"/>
+      <c r="B640" s="15"/>
+      <c r="C640" s="18"/>
+      <c r="D640" s="17"/>
+      <c r="E640" s="18"/>
+      <c r="F640" s="19"/>
+    </row>
+    <row r="641" ht="16.35" customHeight="1">
+      <c r="A641" s="9"/>
+      <c r="B641" s="15"/>
+      <c r="C641" s="18"/>
+      <c r="D641" s="17"/>
+      <c r="E641" s="18"/>
+      <c r="F641" s="19"/>
+    </row>
+    <row r="642" ht="16.35" customHeight="1">
+      <c r="A642" s="9"/>
+      <c r="B642" s="15"/>
+      <c r="C642" s="18"/>
+      <c r="D642" s="17"/>
+      <c r="E642" s="18"/>
+      <c r="F642" s="19"/>
+    </row>
+    <row r="643" ht="16.35" customHeight="1">
+      <c r="A643" s="9"/>
+      <c r="B643" s="15"/>
+      <c r="C643" s="18"/>
+      <c r="D643" s="17"/>
+      <c r="E643" s="18"/>
+      <c r="F643" s="19"/>
+    </row>
+    <row r="644" ht="16.35" customHeight="1">
+      <c r="A644" s="9"/>
+      <c r="B644" s="15"/>
+      <c r="C644" s="18"/>
+      <c r="D644" s="17"/>
+      <c r="E644" s="18"/>
+      <c r="F644" s="19"/>
+    </row>
+    <row r="645" ht="16.35" customHeight="1">
+      <c r="A645" s="9"/>
+      <c r="B645" s="15"/>
+      <c r="C645" s="18"/>
+      <c r="D645" s="17"/>
+      <c r="E645" s="18"/>
+      <c r="F645" s="19"/>
+    </row>
+    <row r="646" ht="16.35" customHeight="1">
+      <c r="A646" s="9"/>
+      <c r="B646" s="15"/>
+      <c r="C646" s="18"/>
+      <c r="D646" s="17"/>
+      <c r="E646" s="18"/>
+      <c r="F646" s="19"/>
+    </row>
+    <row r="647" ht="16.35" customHeight="1">
+      <c r="A647" s="9"/>
+      <c r="B647" s="15"/>
+      <c r="C647" s="18"/>
+      <c r="D647" s="17"/>
+      <c r="E647" s="18"/>
+      <c r="F647" s="19"/>
+    </row>
+    <row r="648" ht="16.35" customHeight="1">
+      <c r="A648" s="9"/>
+      <c r="B648" s="15"/>
+      <c r="C648" s="18"/>
+      <c r="D648" s="17"/>
+      <c r="E648" s="18"/>
+      <c r="F648" s="19"/>
+    </row>
+    <row r="649" ht="16.35" customHeight="1">
+      <c r="A649" s="9"/>
+      <c r="B649" s="15"/>
+      <c r="C649" s="18"/>
+      <c r="D649" s="17"/>
+      <c r="E649" s="18"/>
+      <c r="F649" s="19"/>
+    </row>
+    <row r="650" ht="16.35" customHeight="1">
+      <c r="A650" s="9"/>
+      <c r="B650" s="15"/>
+      <c r="C650" s="18"/>
+      <c r="D650" s="17"/>
+      <c r="E650" s="18"/>
+      <c r="F650" s="19"/>
+    </row>
+    <row r="651" ht="16.35" customHeight="1">
+      <c r="A651" s="9"/>
+      <c r="B651" s="15"/>
+      <c r="C651" s="18"/>
+      <c r="D651" s="17"/>
+      <c r="E651" s="18"/>
+      <c r="F651" s="19"/>
+    </row>
+    <row r="652" ht="16.35" customHeight="1">
+      <c r="A652" s="9"/>
+      <c r="B652" s="15"/>
+      <c r="C652" s="18"/>
+      <c r="D652" s="17"/>
+      <c r="E652" s="18"/>
+      <c r="F652" s="19"/>
+    </row>
+    <row r="653" ht="16.35" customHeight="1">
+      <c r="A653" s="9"/>
+      <c r="B653" s="15"/>
+      <c r="C653" s="18"/>
+      <c r="D653" s="17"/>
+      <c r="E653" s="18"/>
+      <c r="F653" s="19"/>
+    </row>
+    <row r="654" ht="16.35" customHeight="1">
+      <c r="A654" s="9"/>
+      <c r="B654" s="15"/>
+      <c r="C654" s="18"/>
+      <c r="D654" s="17"/>
+      <c r="E654" s="18"/>
+      <c r="F654" s="19"/>
+    </row>
+    <row r="655" ht="16.35" customHeight="1">
+      <c r="A655" s="9"/>
+      <c r="B655" s="15"/>
+      <c r="C655" s="18"/>
+      <c r="D655" s="17"/>
+      <c r="E655" s="18"/>
+      <c r="F655" s="19"/>
+    </row>
+    <row r="656" ht="16.35" customHeight="1">
+      <c r="A656" s="9"/>
+      <c r="B656" s="15"/>
+      <c r="C656" s="18"/>
+      <c r="D656" s="17"/>
+      <c r="E656" s="18"/>
+      <c r="F656" s="19"/>
+    </row>
+    <row r="657" ht="16.35" customHeight="1">
+      <c r="A657" s="9"/>
+      <c r="B657" s="15"/>
+      <c r="C657" s="18"/>
+      <c r="D657" s="17"/>
+      <c r="E657" s="18"/>
+      <c r="F657" s="19"/>
+    </row>
+    <row r="658" ht="16.35" customHeight="1">
+      <c r="A658" s="9"/>
+      <c r="B658" s="15"/>
+      <c r="C658" s="18"/>
+      <c r="D658" s="17"/>
+      <c r="E658" s="18"/>
+      <c r="F658" s="19"/>
+    </row>
+    <row r="659" ht="16.35" customHeight="1">
+      <c r="A659" s="9"/>
+      <c r="B659" s="15"/>
+      <c r="C659" s="18"/>
+      <c r="D659" s="17"/>
+      <c r="E659" s="18"/>
+      <c r="F659" s="19"/>
+    </row>
+    <row r="660" ht="16.35" customHeight="1">
+      <c r="A660" s="9"/>
+      <c r="B660" s="15"/>
+      <c r="C660" s="18"/>
+      <c r="D660" s="17"/>
+      <c r="E660" s="18"/>
+      <c r="F660" s="19"/>
+    </row>
+    <row r="661" ht="16.35" customHeight="1">
+      <c r="A661" s="9"/>
+      <c r="B661" s="15"/>
+      <c r="C661" s="18"/>
+      <c r="D661" s="17"/>
+      <c r="E661" s="18"/>
+      <c r="F661" s="19"/>
+    </row>
+    <row r="662" ht="16.35" customHeight="1">
+      <c r="A662" s="9"/>
+      <c r="B662" s="15"/>
+      <c r="C662" s="18"/>
+      <c r="D662" s="17"/>
+      <c r="E662" s="18"/>
+      <c r="F662" s="19"/>
+    </row>
+    <row r="663" ht="16.35" customHeight="1">
+      <c r="A663" s="9"/>
+      <c r="B663" s="15"/>
+      <c r="C663" s="18"/>
+      <c r="D663" s="17"/>
+      <c r="E663" s="18"/>
+      <c r="F663" s="19"/>
+    </row>
+    <row r="664" ht="16.35" customHeight="1">
+      <c r="A664" s="9"/>
+      <c r="B664" s="15"/>
+      <c r="C664" s="18"/>
+      <c r="D664" s="17"/>
+      <c r="E664" s="18"/>
+      <c r="F664" s="19"/>
+    </row>
+    <row r="665" ht="16.35" customHeight="1">
+      <c r="A665" s="9"/>
+      <c r="B665" s="15"/>
+      <c r="C665" s="18"/>
+      <c r="D665" s="17"/>
+      <c r="E665" s="18"/>
+      <c r="F665" s="19"/>
+    </row>
+    <row r="666" ht="16.35" customHeight="1">
+      <c r="A666" s="9"/>
+      <c r="B666" s="15"/>
+      <c r="C666" s="18"/>
+      <c r="D666" s="17"/>
+      <c r="E666" s="18"/>
+      <c r="F666" s="19"/>
+    </row>
+    <row r="667" ht="16.35" customHeight="1">
+      <c r="A667" s="9"/>
+      <c r="B667" s="15"/>
+      <c r="C667" s="18"/>
+      <c r="D667" s="17"/>
+      <c r="E667" s="18"/>
+      <c r="F667" s="19"/>
+    </row>
+    <row r="668" ht="16.35" customHeight="1">
+      <c r="A668" s="9"/>
+      <c r="B668" s="15"/>
+      <c r="C668" s="18"/>
+      <c r="D668" s="17"/>
+      <c r="E668" s="18"/>
+      <c r="F668" s="19"/>
+    </row>
+    <row r="669" ht="16.35" customHeight="1">
+      <c r="A669" s="9"/>
+      <c r="B669" s="15"/>
+      <c r="C669" s="18"/>
+      <c r="D669" s="17"/>
+      <c r="E669" s="18"/>
+      <c r="F669" s="19"/>
+    </row>
+    <row r="670" ht="16.35" customHeight="1">
+      <c r="A670" s="9"/>
+      <c r="B670" s="15"/>
+      <c r="C670" s="18"/>
+      <c r="D670" s="17"/>
+      <c r="E670" s="18"/>
+      <c r="F670" s="19"/>
+    </row>
+    <row r="671" ht="16.35" customHeight="1">
+      <c r="A671" s="9"/>
+      <c r="B671" s="15"/>
+      <c r="C671" s="18"/>
+      <c r="D671" s="17"/>
+      <c r="E671" s="18"/>
+      <c r="F671" s="19"/>
+    </row>
+    <row r="672" ht="16.35" customHeight="1">
+      <c r="A672" s="9"/>
+      <c r="B672" s="15"/>
+      <c r="C672" s="18"/>
+      <c r="D672" s="17"/>
+      <c r="E672" s="18"/>
+      <c r="F672" s="19"/>
+    </row>
+    <row r="673" ht="16.35" customHeight="1">
+      <c r="A673" s="9"/>
+      <c r="B673" s="15"/>
+      <c r="C673" s="18"/>
+      <c r="D673" s="17"/>
+      <c r="E673" s="18"/>
+      <c r="F673" s="19"/>
+    </row>
+    <row r="674" ht="16.35" customHeight="1">
+      <c r="A674" s="9"/>
+      <c r="B674" s="15"/>
+      <c r="C674" s="18"/>
+      <c r="D674" s="17"/>
+      <c r="E674" s="18"/>
+      <c r="F674" s="19"/>
+    </row>
+    <row r="675" ht="16.35" customHeight="1">
+      <c r="A675" s="9"/>
+      <c r="B675" s="15"/>
+      <c r="C675" s="18"/>
+      <c r="D675" s="17"/>
+      <c r="E675" s="18"/>
+      <c r="F675" s="19"/>
+    </row>
+    <row r="676" ht="16.35" customHeight="1">
+      <c r="A676" s="9"/>
+      <c r="B676" s="15"/>
+      <c r="C676" s="18"/>
+      <c r="D676" s="17"/>
+      <c r="E676" s="18"/>
+      <c r="F676" s="19"/>
+    </row>
+    <row r="677" ht="16.35" customHeight="1">
+      <c r="A677" s="9"/>
+      <c r="B677" s="15"/>
+      <c r="C677" s="18"/>
+      <c r="D677" s="17"/>
+      <c r="E677" s="18"/>
+      <c r="F677" s="19"/>
+    </row>
+    <row r="678" ht="16.35" customHeight="1">
+      <c r="A678" s="9"/>
+      <c r="B678" s="15"/>
+      <c r="C678" s="18"/>
+      <c r="D678" s="17"/>
+      <c r="E678" s="18"/>
+      <c r="F678" s="19"/>
+    </row>
+    <row r="679" ht="16.35" customHeight="1">
+      <c r="A679" s="9"/>
+      <c r="B679" s="15"/>
+      <c r="C679" s="18"/>
+      <c r="D679" s="17"/>
+      <c r="E679" s="18"/>
+      <c r="F679" s="19"/>
+    </row>
+    <row r="680" ht="16.35" customHeight="1">
+      <c r="A680" s="9"/>
+      <c r="B680" s="15"/>
+      <c r="C680" s="18"/>
+      <c r="D680" s="17"/>
+      <c r="E680" s="18"/>
+      <c r="F680" s="19"/>
+    </row>
+    <row r="681" ht="16.35" customHeight="1">
+      <c r="A681" s="9"/>
+      <c r="B681" s="15"/>
+      <c r="C681" s="18"/>
+      <c r="D681" s="17"/>
+      <c r="E681" s="18"/>
+      <c r="F681" s="19"/>
+    </row>
+    <row r="682" ht="16.35" customHeight="1">
+      <c r="A682" s="9"/>
+      <c r="B682" s="15"/>
+      <c r="C682" s="18"/>
+      <c r="D682" s="17"/>
+      <c r="E682" s="18"/>
+      <c r="F682" s="19"/>
+    </row>
+    <row r="683" ht="16.35" customHeight="1">
+      <c r="A683" s="9"/>
+      <c r="B683" s="15"/>
+      <c r="C683" s="18"/>
+      <c r="D683" s="17"/>
+      <c r="E683" s="18"/>
+      <c r="F683" s="19"/>
+    </row>
+    <row r="684" ht="16.35" customHeight="1">
+      <c r="A684" s="9"/>
+      <c r="B684" s="15"/>
+      <c r="C684" s="18"/>
+      <c r="D684" s="17"/>
+      <c r="E684" s="18"/>
+      <c r="F684" s="19"/>
+    </row>
+    <row r="685" ht="16.35" customHeight="1">
+      <c r="A685" s="9"/>
+      <c r="B685" s="15"/>
+      <c r="C685" s="18"/>
+      <c r="D685" s="17"/>
+      <c r="E685" s="18"/>
+      <c r="F685" s="19"/>
+    </row>
+    <row r="686" ht="16.35" customHeight="1">
+      <c r="A686" s="9"/>
+      <c r="B686" s="15"/>
+      <c r="C686" s="18"/>
+      <c r="D686" s="17"/>
+      <c r="E686" s="18"/>
+      <c r="F686" s="19"/>
+    </row>
+    <row r="687" ht="16.35" customHeight="1">
+      <c r="A687" s="9"/>
+      <c r="B687" s="15"/>
+      <c r="C687" s="18"/>
+      <c r="D687" s="17"/>
+      <c r="E687" s="18"/>
+      <c r="F687" s="19"/>
+    </row>
+    <row r="688" ht="16.35" customHeight="1">
+      <c r="A688" s="9"/>
+      <c r="B688" s="15"/>
+      <c r="C688" s="18"/>
+      <c r="D688" s="17"/>
+      <c r="E688" s="18"/>
+      <c r="F688" s="19"/>
+    </row>
+    <row r="689" ht="16.35" customHeight="1">
+      <c r="A689" s="9"/>
+      <c r="B689" s="15"/>
+      <c r="C689" s="18"/>
+      <c r="D689" s="17"/>
+      <c r="E689" s="18"/>
+      <c r="F689" s="19"/>
+    </row>
+    <row r="690" ht="16.35" customHeight="1">
+      <c r="A690" s="9"/>
+      <c r="B690" s="15"/>
+      <c r="C690" s="18"/>
+      <c r="D690" s="17"/>
+      <c r="E690" s="18"/>
+      <c r="F690" s="19"/>
+    </row>
+    <row r="691" ht="16.35" customHeight="1">
+      <c r="A691" s="9"/>
+      <c r="B691" s="15"/>
+      <c r="C691" s="18"/>
+      <c r="D691" s="17"/>
+      <c r="E691" s="18"/>
+      <c r="F691" s="19"/>
+    </row>
+    <row r="692" ht="16.35" customHeight="1">
+      <c r="A692" s="9"/>
+      <c r="B692" s="15"/>
+      <c r="C692" s="18"/>
+      <c r="D692" s="17"/>
+      <c r="E692" s="18"/>
+      <c r="F692" s="19"/>
+    </row>
+    <row r="693" ht="16.35" customHeight="1">
+      <c r="A693" s="9"/>
+      <c r="B693" s="15"/>
+      <c r="C693" s="18"/>
+      <c r="D693" s="17"/>
+      <c r="E693" s="18"/>
+      <c r="F693" s="19"/>
+    </row>
+    <row r="694" ht="16.35" customHeight="1">
+      <c r="A694" s="9"/>
+      <c r="B694" s="15"/>
+      <c r="C694" s="18"/>
+      <c r="D694" s="17"/>
+      <c r="E694" s="18"/>
+      <c r="F694" s="19"/>
+    </row>
+    <row r="695" ht="16.35" customHeight="1">
+      <c r="A695" s="9"/>
+      <c r="B695" s="15"/>
+      <c r="C695" s="18"/>
+      <c r="D695" s="17"/>
+      <c r="E695" s="18"/>
+      <c r="F695" s="19"/>
+    </row>
+    <row r="696" ht="16.35" customHeight="1">
+      <c r="A696" s="9"/>
+      <c r="B696" s="15"/>
+      <c r="C696" s="18"/>
+      <c r="D696" s="17"/>
+      <c r="E696" s="18"/>
+      <c r="F696" s="19"/>
+    </row>
+    <row r="697" ht="16.35" customHeight="1">
+      <c r="A697" s="9"/>
+      <c r="B697" s="15"/>
+      <c r="C697" s="18"/>
+      <c r="D697" s="17"/>
+      <c r="E697" s="18"/>
+      <c r="F697" s="19"/>
+    </row>
+    <row r="698" ht="16.35" customHeight="1">
+      <c r="A698" s="9"/>
+      <c r="B698" s="15"/>
+      <c r="C698" s="18"/>
+      <c r="D698" s="17"/>
+      <c r="E698" s="18"/>
+      <c r="F698" s="19"/>
+    </row>
+    <row r="699" ht="16.35" customHeight="1">
+      <c r="A699" s="9"/>
+      <c r="B699" s="15"/>
+      <c r="C699" s="18"/>
+      <c r="D699" s="17"/>
+      <c r="E699" s="18"/>
+      <c r="F699" s="19"/>
+    </row>
+    <row r="700" ht="16.35" customHeight="1">
+      <c r="A700" s="9"/>
+      <c r="B700" s="15"/>
+      <c r="C700" s="18"/>
+      <c r="D700" s="17"/>
+      <c r="E700" s="18"/>
+      <c r="F700" s="19"/>
+    </row>
+    <row r="701" ht="16.35" customHeight="1">
+      <c r="A701" s="9"/>
+      <c r="B701" s="15"/>
+      <c r="C701" s="18"/>
+      <c r="D701" s="17"/>
+      <c r="E701" s="18"/>
+      <c r="F701" s="19"/>
+    </row>
+    <row r="702" ht="16.35" customHeight="1">
+      <c r="A702" s="9"/>
+      <c r="B702" s="15"/>
+      <c r="C702" s="18"/>
+      <c r="D702" s="17"/>
+      <c r="E702" s="18"/>
+      <c r="F702" s="19"/>
+    </row>
+    <row r="703" ht="16.35" customHeight="1">
+      <c r="A703" s="9"/>
+      <c r="B703" s="15"/>
+      <c r="C703" s="18"/>
+      <c r="D703" s="17"/>
+      <c r="E703" s="18"/>
+      <c r="F703" s="19"/>
+    </row>
+    <row r="704" ht="16.35" customHeight="1">
+      <c r="A704" s="9"/>
+      <c r="B704" s="15"/>
+      <c r="C704" s="18"/>
+      <c r="D704" s="17"/>
+      <c r="E704" s="18"/>
+      <c r="F704" s="19"/>
+    </row>
+    <row r="705" ht="16.35" customHeight="1">
+      <c r="A705" s="9"/>
+      <c r="B705" s="15"/>
+      <c r="C705" s="18"/>
+      <c r="D705" s="17"/>
+      <c r="E705" s="18"/>
+      <c r="F705" s="19"/>
+    </row>
+    <row r="706" ht="16.35" customHeight="1">
+      <c r="A706" s="9"/>
+      <c r="B706" s="15"/>
+      <c r="C706" s="18"/>
+      <c r="D706" s="17"/>
+      <c r="E706" s="18"/>
+      <c r="F706" s="19"/>
+    </row>
+    <row r="707" ht="16.35" customHeight="1">
+      <c r="A707" s="9"/>
+      <c r="B707" s="15"/>
+      <c r="C707" s="18"/>
+      <c r="D707" s="17"/>
+      <c r="E707" s="18"/>
+      <c r="F707" s="19"/>
+    </row>
+    <row r="708" ht="16.35" customHeight="1">
+      <c r="A708" s="9"/>
+      <c r="B708" s="15"/>
+      <c r="C708" s="18"/>
+      <c r="D708" s="17"/>
+      <c r="E708" s="18"/>
+      <c r="F708" s="19"/>
+    </row>
+    <row r="709" ht="16.35" customHeight="1">
+      <c r="A709" s="9"/>
+      <c r="B709" s="15"/>
+      <c r="C709" s="18"/>
+      <c r="D709" s="17"/>
+      <c r="E709" s="18"/>
+      <c r="F709" s="19"/>
+    </row>
+    <row r="710" ht="16.35" customHeight="1">
+      <c r="A710" s="9"/>
+      <c r="B710" s="15"/>
+      <c r="C710" s="18"/>
+      <c r="D710" s="17"/>
+      <c r="E710" s="18"/>
+      <c r="F710" s="19"/>
+    </row>
+    <row r="711" ht="16.35" customHeight="1">
+      <c r="A711" s="9"/>
+      <c r="B711" s="15"/>
+      <c r="C711" s="18"/>
+      <c r="D711" s="17"/>
+      <c r="E711" s="18"/>
+      <c r="F711" s="19"/>
+    </row>
+    <row r="712" ht="16.35" customHeight="1">
+      <c r="A712" s="9"/>
+      <c r="B712" s="15"/>
+      <c r="C712" s="18"/>
+      <c r="D712" s="17"/>
+      <c r="E712" s="18"/>
+      <c r="F712" s="19"/>
+    </row>
+    <row r="713" ht="16.35" customHeight="1">
+      <c r="A713" s="9"/>
+      <c r="B713" s="15"/>
+      <c r="C713" s="18"/>
+      <c r="D713" s="17"/>
+      <c r="E713" s="18"/>
+      <c r="F713" s="19"/>
+    </row>
+    <row r="714" ht="16.35" customHeight="1">
+      <c r="A714" s="9"/>
+      <c r="B714" s="15"/>
+      <c r="C714" s="18"/>
+      <c r="D714" s="17"/>
+      <c r="E714" s="18"/>
+      <c r="F714" s="19"/>
+    </row>
+    <row r="715" ht="16.35" customHeight="1">
+      <c r="A715" s="9"/>
+      <c r="B715" s="15"/>
+      <c r="C715" s="18"/>
+      <c r="D715" s="17"/>
+      <c r="E715" s="18"/>
+      <c r="F715" s="19"/>
+    </row>
+    <row r="716" ht="16.35" customHeight="1">
+      <c r="A716" s="9"/>
+      <c r="B716" s="15"/>
+      <c r="C716" s="18"/>
+      <c r="D716" s="17"/>
+      <c r="E716" s="18"/>
+      <c r="F716" s="19"/>
+    </row>
+    <row r="717" ht="16.35" customHeight="1">
+      <c r="A717" s="9"/>
+      <c r="B717" s="15"/>
+      <c r="C717" s="18"/>
+      <c r="D717" s="17"/>
+      <c r="E717" s="18"/>
+      <c r="F717" s="19"/>
+    </row>
+    <row r="718" ht="16.35" customHeight="1">
+      <c r="A718" s="9"/>
+      <c r="B718" s="15"/>
+      <c r="C718" s="18"/>
+      <c r="D718" s="17"/>
+      <c r="E718" s="18"/>
+      <c r="F718" s="19"/>
+    </row>
+    <row r="719" ht="16.35" customHeight="1">
+      <c r="A719" s="9"/>
+      <c r="B719" s="15"/>
+      <c r="C719" s="18"/>
+      <c r="D719" s="17"/>
+      <c r="E719" s="18"/>
+      <c r="F719" s="19"/>
+    </row>
+    <row r="720" ht="16.35" customHeight="1">
+      <c r="A720" s="9"/>
+      <c r="B720" s="15"/>
+      <c r="C720" s="18"/>
+      <c r="D720" s="17"/>
+      <c r="E720" s="18"/>
+      <c r="F720" s="19"/>
+    </row>
+    <row r="721" ht="16.35" customHeight="1">
+      <c r="A721" s="9"/>
+      <c r="B721" s="15"/>
+      <c r="C721" s="18"/>
+      <c r="D721" s="17"/>
+      <c r="E721" s="18"/>
+      <c r="F721" s="19"/>
+    </row>
+    <row r="722" ht="16.35" customHeight="1">
+      <c r="A722" s="9"/>
+      <c r="B722" s="15"/>
+      <c r="C722" s="18"/>
+      <c r="D722" s="17"/>
+      <c r="E722" s="18"/>
+      <c r="F722" s="19"/>
+    </row>
+    <row r="723" ht="16.35" customHeight="1">
+      <c r="A723" s="9"/>
+      <c r="B723" s="15"/>
+      <c r="C723" s="18"/>
+      <c r="D723" s="17"/>
+      <c r="E723" s="18"/>
+      <c r="F723" s="19"/>
+    </row>
+    <row r="724" ht="16.35" customHeight="1">
+      <c r="A724" s="9"/>
+      <c r="B724" s="15"/>
+      <c r="C724" s="18"/>
+      <c r="D724" s="17"/>
+      <c r="E724" s="18"/>
+      <c r="F724" s="19"/>
+    </row>
+    <row r="725" ht="16.35" customHeight="1">
+      <c r="A725" s="9"/>
+      <c r="B725" s="15"/>
+      <c r="C725" s="18"/>
+      <c r="D725" s="17"/>
+      <c r="E725" s="18"/>
+      <c r="F725" s="19"/>
+    </row>
+    <row r="726" ht="16.35" customHeight="1">
+      <c r="A726" s="9"/>
+      <c r="B726" s="15"/>
+      <c r="C726" s="18"/>
+      <c r="D726" s="17"/>
+      <c r="E726" s="18"/>
+      <c r="F726" s="19"/>
+    </row>
+    <row r="727" ht="16.35" customHeight="1">
+      <c r="A727" s="9"/>
+      <c r="B727" s="15"/>
+      <c r="C727" s="18"/>
+      <c r="D727" s="17"/>
+      <c r="E727" s="18"/>
+      <c r="F727" s="19"/>
+    </row>
+    <row r="728" ht="16.35" customHeight="1">
+      <c r="A728" s="9"/>
+      <c r="B728" s="15"/>
+      <c r="C728" s="18"/>
+      <c r="D728" s="17"/>
+      <c r="E728" s="18"/>
+      <c r="F728" s="19"/>
+    </row>
+    <row r="729" ht="16.35" customHeight="1">
+      <c r="A729" s="9"/>
+      <c r="B729" s="15"/>
+      <c r="C729" s="18"/>
+      <c r="D729" s="17"/>
+      <c r="E729" s="18"/>
+      <c r="F729" s="19"/>
+    </row>
+    <row r="730" ht="16.35" customHeight="1">
+      <c r="A730" s="9"/>
+      <c r="B730" s="15"/>
+      <c r="C730" s="18"/>
+      <c r="D730" s="17"/>
+      <c r="E730" s="18"/>
+      <c r="F730" s="19"/>
+    </row>
+    <row r="731" ht="16.35" customHeight="1">
+      <c r="A731" s="9"/>
+      <c r="B731" s="15"/>
+      <c r="C731" s="18"/>
+      <c r="D731" s="17"/>
+      <c r="E731" s="18"/>
+      <c r="F731" s="19"/>
+    </row>
+    <row r="732" ht="16.35" customHeight="1">
+      <c r="A732" s="9"/>
+      <c r="B732" s="15"/>
+      <c r="C732" s="18"/>
+      <c r="D732" s="17"/>
+      <c r="E732" s="18"/>
+      <c r="F732" s="19"/>
+    </row>
+    <row r="733" ht="16.35" customHeight="1">
+      <c r="A733" s="9"/>
+      <c r="B733" s="15"/>
+      <c r="C733" s="18"/>
+      <c r="D733" s="17"/>
+      <c r="E733" s="18"/>
+      <c r="F733" s="19"/>
+    </row>
+    <row r="734" ht="16.35" customHeight="1">
+      <c r="A734" s="9"/>
+      <c r="B734" s="15"/>
+      <c r="C734" s="18"/>
+      <c r="D734" s="17"/>
+      <c r="E734" s="18"/>
+      <c r="F734" s="19"/>
+    </row>
+    <row r="735" ht="16.35" customHeight="1">
+      <c r="A735" s="9"/>
+      <c r="B735" s="15"/>
+      <c r="C735" s="18"/>
+      <c r="D735" s="17"/>
+      <c r="E735" s="18"/>
+      <c r="F735" s="19"/>
+    </row>
+    <row r="736" ht="16.35" customHeight="1">
+      <c r="A736" s="9"/>
+      <c r="B736" s="15"/>
+      <c r="C736" s="18"/>
+      <c r="D736" s="17"/>
+      <c r="E736" s="18"/>
+      <c r="F736" s="19"/>
+    </row>
+    <row r="737" ht="16.35" customHeight="1">
+      <c r="A737" s="9"/>
+      <c r="B737" s="15"/>
+      <c r="C737" s="18"/>
+      <c r="D737" s="17"/>
+      <c r="E737" s="18"/>
+      <c r="F737" s="19"/>
+    </row>
+    <row r="738" ht="16.35" customHeight="1">
+      <c r="A738" s="9"/>
+      <c r="B738" s="15"/>
+      <c r="C738" s="18"/>
+      <c r="D738" s="17"/>
+      <c r="E738" s="18"/>
+      <c r="F738" s="19"/>
+    </row>
+    <row r="739" ht="16.35" customHeight="1">
+      <c r="A739" s="9"/>
+      <c r="B739" s="15"/>
+      <c r="C739" s="18"/>
+      <c r="D739" s="17"/>
+      <c r="E739" s="18"/>
+      <c r="F739" s="19"/>
+    </row>
+    <row r="740" ht="16.35" customHeight="1">
+      <c r="A740" s="9"/>
+      <c r="B740" s="15"/>
+      <c r="C740" s="18"/>
+      <c r="D740" s="17"/>
+      <c r="E740" s="18"/>
+      <c r="F740" s="19"/>
+    </row>
+    <row r="741" ht="16.35" customHeight="1">
+      <c r="A741" s="9"/>
+      <c r="B741" s="15"/>
+      <c r="C741" s="18"/>
+      <c r="D741" s="17"/>
+      <c r="E741" s="18"/>
+      <c r="F741" s="19"/>
+    </row>
+    <row r="742" ht="16.35" customHeight="1">
+      <c r="A742" s="9"/>
+      <c r="B742" s="15"/>
+      <c r="C742" s="18"/>
+      <c r="D742" s="17"/>
+      <c r="E742" s="18"/>
+      <c r="F742" s="19"/>
+    </row>
+    <row r="743" ht="16.35" customHeight="1">
+      <c r="A743" s="9"/>
+      <c r="B743" s="15"/>
+      <c r="C743" s="18"/>
+      <c r="D743" s="17"/>
+      <c r="E743" s="18"/>
+      <c r="F743" s="19"/>
+    </row>
+    <row r="744" ht="16.35" customHeight="1">
+      <c r="A744" s="9"/>
+      <c r="B744" s="15"/>
+      <c r="C744" s="18"/>
+      <c r="D744" s="17"/>
+      <c r="E744" s="18"/>
+      <c r="F744" s="19"/>
+    </row>
+    <row r="745" ht="16.35" customHeight="1">
+      <c r="A745" s="9"/>
+      <c r="B745" s="15"/>
+      <c r="C745" s="18"/>
+      <c r="D745" s="17"/>
+      <c r="E745" s="18"/>
+      <c r="F745" s="19"/>
+    </row>
+    <row r="746" ht="16.35" customHeight="1">
+      <c r="A746" s="9"/>
+      <c r="B746" s="15"/>
+      <c r="C746" s="18"/>
+      <c r="D746" s="17"/>
+      <c r="E746" s="18"/>
+      <c r="F746" s="19"/>
+    </row>
+    <row r="747" ht="16.35" customHeight="1">
+      <c r="A747" s="9"/>
+      <c r="B747" s="15"/>
+      <c r="C747" s="18"/>
+      <c r="D747" s="17"/>
+      <c r="E747" s="18"/>
+      <c r="F747" s="19"/>
+    </row>
+    <row r="748" ht="16.35" customHeight="1">
+      <c r="A748" s="9"/>
+      <c r="B748" s="15"/>
+      <c r="C748" s="18"/>
+      <c r="D748" s="17"/>
+      <c r="E748" s="18"/>
+      <c r="F748" s="19"/>
+    </row>
+    <row r="749" ht="16.35" customHeight="1">
+      <c r="A749" s="9"/>
+      <c r="B749" s="15"/>
+      <c r="C749" s="18"/>
+      <c r="D749" s="17"/>
+      <c r="E749" s="18"/>
+      <c r="F749" s="19"/>
+    </row>
+    <row r="750" ht="16.35" customHeight="1">
+      <c r="A750" s="9"/>
+      <c r="B750" s="15"/>
+      <c r="C750" s="18"/>
+      <c r="D750" s="17"/>
+      <c r="E750" s="18"/>
+      <c r="F750" s="19"/>
+    </row>
+    <row r="751" ht="16.35" customHeight="1">
+      <c r="A751" s="9"/>
+      <c r="B751" s="15"/>
+      <c r="C751" s="18"/>
+      <c r="D751" s="17"/>
+      <c r="E751" s="18"/>
+      <c r="F751" s="19"/>
+    </row>
+    <row r="752" ht="16.35" customHeight="1">
+      <c r="A752" s="9"/>
+      <c r="B752" s="15"/>
+      <c r="C752" s="18"/>
+      <c r="D752" s="17"/>
+      <c r="E752" s="18"/>
+      <c r="F752" s="19"/>
+    </row>
+    <row r="753" ht="16.35" customHeight="1">
+      <c r="A753" s="9"/>
+      <c r="B753" s="15"/>
+      <c r="C753" s="18"/>
+      <c r="D753" s="17"/>
+      <c r="E753" s="18"/>
+      <c r="F753" s="19"/>
+    </row>
+    <row r="754" ht="16.35" customHeight="1">
+      <c r="A754" s="9"/>
+      <c r="B754" s="15"/>
+      <c r="C754" s="18"/>
+      <c r="D754" s="17"/>
+      <c r="E754" s="18"/>
+      <c r="F754" s="19"/>
+    </row>
+    <row r="755" ht="16.35" customHeight="1">
+      <c r="A755" s="9"/>
+      <c r="B755" s="15"/>
+      <c r="C755" s="18"/>
+      <c r="D755" s="17"/>
+      <c r="E755" s="18"/>
+      <c r="F755" s="19"/>
+    </row>
+    <row r="756" ht="16.35" customHeight="1">
+      <c r="A756" s="9"/>
+      <c r="B756" s="15"/>
+      <c r="C756" s="18"/>
+      <c r="D756" s="17"/>
+      <c r="E756" s="18"/>
+      <c r="F756" s="19"/>
+    </row>
+    <row r="757" ht="16.35" customHeight="1">
+      <c r="A757" s="9"/>
+      <c r="B757" s="15"/>
+      <c r="C757" s="18"/>
+      <c r="D757" s="17"/>
+      <c r="E757" s="18"/>
+      <c r="F757" s="19"/>
+    </row>
+    <row r="758" ht="16.35" customHeight="1">
+      <c r="A758" s="9"/>
+      <c r="B758" s="15"/>
+      <c r="C758" s="18"/>
+      <c r="D758" s="17"/>
+      <c r="E758" s="18"/>
+      <c r="F758" s="19"/>
+    </row>
+    <row r="759" ht="16.35" customHeight="1">
+      <c r="A759" s="9"/>
+      <c r="B759" s="15"/>
+      <c r="C759" s="18"/>
+      <c r="D759" s="17"/>
+      <c r="E759" s="18"/>
+      <c r="F759" s="19"/>
+    </row>
+    <row r="760" ht="16.35" customHeight="1">
+      <c r="A760" s="9"/>
+      <c r="B760" s="15"/>
+      <c r="C760" s="18"/>
+      <c r="D760" s="17"/>
+      <c r="E760" s="18"/>
+      <c r="F760" s="19"/>
+    </row>
+    <row r="761" ht="16.35" customHeight="1">
+      <c r="A761" s="9"/>
+      <c r="B761" s="15"/>
+      <c r="C761" s="18"/>
+      <c r="D761" s="17"/>
+      <c r="E761" s="18"/>
+      <c r="F761" s="19"/>
+    </row>
+    <row r="762" ht="16.35" customHeight="1">
+      <c r="A762" s="9"/>
+      <c r="B762" s="15"/>
+      <c r="C762" s="18"/>
+      <c r="D762" s="17"/>
+      <c r="E762" s="18"/>
+      <c r="F762" s="19"/>
+    </row>
+    <row r="763" ht="16.35" customHeight="1">
+      <c r="A763" s="9"/>
+      <c r="B763" s="15"/>
+      <c r="C763" s="18"/>
+      <c r="D763" s="17"/>
+      <c r="E763" s="18"/>
+      <c r="F763" s="19"/>
+    </row>
+    <row r="764" ht="16.35" customHeight="1">
+      <c r="A764" s="9"/>
+      <c r="B764" s="15"/>
+      <c r="C764" s="18"/>
+      <c r="D764" s="17"/>
+      <c r="E764" s="18"/>
+      <c r="F764" s="19"/>
+    </row>
+    <row r="765" ht="16.35" customHeight="1">
+      <c r="A765" s="9"/>
+      <c r="B765" s="15"/>
+      <c r="C765" s="18"/>
+      <c r="D765" s="17"/>
+      <c r="E765" s="18"/>
+      <c r="F765" s="19"/>
+    </row>
+    <row r="766" ht="16.35" customHeight="1">
+      <c r="A766" s="9"/>
+      <c r="B766" s="15"/>
+      <c r="C766" s="18"/>
+      <c r="D766" s="17"/>
+      <c r="E766" s="18"/>
+      <c r="F766" s="19"/>
+    </row>
+    <row r="767" ht="16.35" customHeight="1">
+      <c r="A767" s="9"/>
+      <c r="B767" s="15"/>
+      <c r="C767" s="18"/>
+      <c r="D767" s="17"/>
+      <c r="E767" s="18"/>
+      <c r="F767" s="19"/>
+    </row>
+    <row r="768" ht="16.35" customHeight="1">
+      <c r="A768" s="9"/>
+      <c r="B768" s="15"/>
+      <c r="C768" s="18"/>
+      <c r="D768" s="17"/>
+      <c r="E768" s="18"/>
+      <c r="F768" s="19"/>
+    </row>
+    <row r="769" ht="16.35" customHeight="1">
+      <c r="A769" s="9"/>
+      <c r="B769" s="15"/>
+      <c r="C769" s="18"/>
+      <c r="D769" s="17"/>
+      <c r="E769" s="18"/>
+      <c r="F769" s="19"/>
+    </row>
+    <row r="770" ht="16.35" customHeight="1">
+      <c r="A770" s="9"/>
+      <c r="B770" s="15"/>
+      <c r="C770" s="18"/>
+      <c r="D770" s="17"/>
+      <c r="E770" s="18"/>
+      <c r="F770" s="19"/>
+    </row>
+    <row r="771" ht="16.35" customHeight="1">
+      <c r="A771" s="9"/>
+      <c r="B771" s="15"/>
+      <c r="C771" s="18"/>
+      <c r="D771" s="17"/>
+      <c r="E771" s="18"/>
+      <c r="F771" s="19"/>
+    </row>
+    <row r="772" ht="16.35" customHeight="1">
+      <c r="A772" s="9"/>
+      <c r="B772" s="15"/>
+      <c r="C772" s="18"/>
+      <c r="D772" s="17"/>
+      <c r="E772" s="18"/>
+      <c r="F772" s="19"/>
+    </row>
+    <row r="773" ht="16.35" customHeight="1">
+      <c r="A773" s="9"/>
+      <c r="B773" s="15"/>
+      <c r="C773" s="18"/>
+      <c r="D773" s="17"/>
+      <c r="E773" s="18"/>
+      <c r="F773" s="19"/>
+    </row>
+    <row r="774" ht="16.35" customHeight="1">
+      <c r="A774" s="9"/>
+      <c r="B774" s="15"/>
+      <c r="C774" s="18"/>
+      <c r="D774" s="17"/>
+      <c r="E774" s="18"/>
+      <c r="F774" s="19"/>
+    </row>
+    <row r="775" ht="16.35" customHeight="1">
+      <c r="A775" s="9"/>
+      <c r="B775" s="15"/>
+      <c r="C775" s="18"/>
+      <c r="D775" s="17"/>
+      <c r="E775" s="18"/>
+      <c r="F775" s="19"/>
+    </row>
+    <row r="776" ht="16.35" customHeight="1">
+      <c r="A776" s="9"/>
+      <c r="B776" s="15"/>
+      <c r="C776" s="18"/>
+      <c r="D776" s="17"/>
+      <c r="E776" s="18"/>
+      <c r="F776" s="19"/>
+    </row>
+    <row r="777" ht="16.35" customHeight="1">
+      <c r="A777" s="9"/>
+      <c r="B777" s="15"/>
+      <c r="C777" s="18"/>
+      <c r="D777" s="17"/>
+      <c r="E777" s="18"/>
+      <c r="F777" s="19"/>
+    </row>
+    <row r="778" ht="16.35" customHeight="1">
+      <c r="A778" s="9"/>
+      <c r="B778" s="15"/>
+      <c r="C778" s="18"/>
+      <c r="D778" s="17"/>
+      <c r="E778" s="18"/>
+      <c r="F778" s="19"/>
+    </row>
+    <row r="779" ht="16.35" customHeight="1">
+      <c r="A779" s="9"/>
+      <c r="B779" s="15"/>
+      <c r="C779" s="18"/>
+      <c r="D779" s="17"/>
+      <c r="E779" s="18"/>
+      <c r="F779" s="19"/>
+    </row>
+    <row r="780" ht="16.35" customHeight="1">
+      <c r="A780" s="9"/>
+      <c r="B780" s="15"/>
+      <c r="C780" s="18"/>
+      <c r="D780" s="17"/>
+      <c r="E780" s="18"/>
+      <c r="F780" s="19"/>
+    </row>
+    <row r="781" ht="16.35" customHeight="1">
+      <c r="A781" s="9"/>
+      <c r="B781" s="15"/>
+      <c r="C781" s="18"/>
+      <c r="D781" s="17"/>
+      <c r="E781" s="18"/>
+      <c r="F781" s="19"/>
+    </row>
+    <row r="782" ht="16.35" customHeight="1">
+      <c r="A782" s="9"/>
+      <c r="B782" s="15"/>
+      <c r="C782" s="18"/>
+      <c r="D782" s="17"/>
+      <c r="E782" s="18"/>
+      <c r="F782" s="19"/>
+    </row>
+    <row r="783" ht="16.35" customHeight="1">
+      <c r="A783" s="9"/>
+      <c r="B783" s="15"/>
+      <c r="C783" s="18"/>
+      <c r="D783" s="17"/>
+      <c r="E783" s="18"/>
+      <c r="F783" s="19"/>
+    </row>
+    <row r="784" ht="16.35" customHeight="1">
+      <c r="A784" s="9"/>
+      <c r="B784" s="15"/>
+      <c r="C784" s="18"/>
+      <c r="D784" s="17"/>
+      <c r="E784" s="18"/>
+      <c r="F784" s="19"/>
+    </row>
+    <row r="785" ht="16.35" customHeight="1">
+      <c r="A785" s="9"/>
+      <c r="B785" s="15"/>
+      <c r="C785" s="18"/>
+      <c r="D785" s="17"/>
+      <c r="E785" s="18"/>
+      <c r="F785" s="19"/>
+    </row>
+    <row r="786" ht="16.35" customHeight="1">
+      <c r="A786" s="9"/>
+      <c r="B786" s="15"/>
+      <c r="C786" s="18"/>
+      <c r="D786" s="17"/>
+      <c r="E786" s="18"/>
+      <c r="F786" s="19"/>
+    </row>
+    <row r="787" ht="16.35" customHeight="1">
+      <c r="A787" s="9"/>
+      <c r="B787" s="15"/>
+      <c r="C787" s="18"/>
+      <c r="D787" s="17"/>
+      <c r="E787" s="18"/>
+      <c r="F787" s="19"/>
+    </row>
+    <row r="788" ht="16.35" customHeight="1">
+      <c r="A788" s="9"/>
+      <c r="B788" s="15"/>
+      <c r="C788" s="18"/>
+      <c r="D788" s="17"/>
+      <c r="E788" s="18"/>
+      <c r="F788" s="19"/>
+    </row>
+    <row r="789" ht="16.35" customHeight="1">
+      <c r="A789" s="9"/>
+      <c r="B789" s="15"/>
+      <c r="C789" s="18"/>
+      <c r="D789" s="17"/>
+      <c r="E789" s="18"/>
+      <c r="F789" s="19"/>
+    </row>
+    <row r="790" ht="16.35" customHeight="1">
+      <c r="A790" s="9"/>
+      <c r="B790" s="15"/>
+      <c r="C790" s="18"/>
+      <c r="D790" s="17"/>
+      <c r="E790" s="18"/>
+      <c r="F790" s="19"/>
+    </row>
+    <row r="791" ht="16.35" customHeight="1">
+      <c r="A791" s="9"/>
+      <c r="B791" s="15"/>
+      <c r="C791" s="18"/>
+      <c r="D791" s="17"/>
+      <c r="E791" s="18"/>
+      <c r="F791" s="19"/>
+    </row>
+    <row r="792" ht="16.35" customHeight="1">
+      <c r="A792" s="9"/>
+      <c r="B792" s="15"/>
+      <c r="C792" s="18"/>
+      <c r="D792" s="17"/>
+      <c r="E792" s="18"/>
+      <c r="F792" s="19"/>
+    </row>
+    <row r="793" ht="16.35" customHeight="1">
+      <c r="A793" s="9"/>
+      <c r="B793" s="15"/>
+      <c r="C793" s="18"/>
+      <c r="D793" s="17"/>
+      <c r="E793" s="18"/>
+      <c r="F793" s="19"/>
+    </row>
+    <row r="794" ht="16.35" customHeight="1">
+      <c r="A794" s="9"/>
+      <c r="B794" s="15"/>
+      <c r="C794" s="18"/>
+      <c r="D794" s="17"/>
+      <c r="E794" s="18"/>
+      <c r="F794" s="19"/>
+    </row>
+    <row r="795" ht="16.35" customHeight="1">
+      <c r="A795" s="9"/>
+      <c r="B795" s="15"/>
+      <c r="C795" s="18"/>
+      <c r="D795" s="17"/>
+      <c r="E795" s="18"/>
+      <c r="F795" s="19"/>
+    </row>
+    <row r="796" ht="16.35" customHeight="1">
+      <c r="A796" s="9"/>
+      <c r="B796" s="15"/>
+      <c r="C796" s="18"/>
+      <c r="D796" s="17"/>
+      <c r="E796" s="18"/>
+      <c r="F796" s="19"/>
+    </row>
+    <row r="797" ht="16.35" customHeight="1">
+      <c r="A797" s="9"/>
+      <c r="B797" s="15"/>
+      <c r="C797" s="18"/>
+      <c r="D797" s="17"/>
+      <c r="E797" s="18"/>
+      <c r="F797" s="19"/>
+    </row>
+    <row r="798" ht="16.35" customHeight="1">
+      <c r="A798" s="9"/>
+      <c r="B798" s="15"/>
+      <c r="C798" s="18"/>
+      <c r="D798" s="17"/>
+      <c r="E798" s="18"/>
+      <c r="F798" s="19"/>
+    </row>
+    <row r="799" ht="16.35" customHeight="1">
+      <c r="A799" s="9"/>
+      <c r="B799" s="15"/>
+      <c r="C799" s="18"/>
+      <c r="D799" s="17"/>
+      <c r="E799" s="18"/>
+      <c r="F799" s="19"/>
+    </row>
+    <row r="800" ht="16.35" customHeight="1">
+      <c r="A800" s="9"/>
+      <c r="B800" s="15"/>
+      <c r="C800" s="18"/>
+      <c r="D800" s="17"/>
+      <c r="E800" s="18"/>
+      <c r="F800" s="19"/>
+    </row>
+    <row r="801" ht="16.35" customHeight="1">
+      <c r="A801" s="9"/>
+      <c r="B801" s="15"/>
+      <c r="C801" s="18"/>
+      <c r="D801" s="17"/>
+      <c r="E801" s="18"/>
+      <c r="F801" s="19"/>
+    </row>
+    <row r="802" ht="16.35" customHeight="1">
+      <c r="A802" s="9"/>
+      <c r="B802" s="15"/>
+      <c r="C802" s="18"/>
+      <c r="D802" s="17"/>
+      <c r="E802" s="18"/>
+      <c r="F802" s="19"/>
+    </row>
+    <row r="803" ht="16.35" customHeight="1">
+      <c r="A803" s="9"/>
+      <c r="B803" s="15"/>
+      <c r="C803" s="18"/>
+      <c r="D803" s="17"/>
+      <c r="E803" s="18"/>
+      <c r="F803" s="19"/>
+    </row>
+    <row r="804" ht="16.35" customHeight="1">
+      <c r="A804" s="9"/>
+      <c r="B804" s="15"/>
+      <c r="C804" s="18"/>
+      <c r="D804" s="17"/>
+      <c r="E804" s="18"/>
+      <c r="F804" s="19"/>
+    </row>
+    <row r="805" ht="16.35" customHeight="1">
+      <c r="A805" s="9"/>
+      <c r="B805" s="15"/>
+      <c r="C805" s="18"/>
+      <c r="D805" s="17"/>
+      <c r="E805" s="18"/>
+      <c r="F805" s="19"/>
+    </row>
+    <row r="806" ht="16.35" customHeight="1">
+      <c r="A806" s="9"/>
+      <c r="B806" s="15"/>
+      <c r="C806" s="18"/>
+      <c r="D806" s="17"/>
+      <c r="E806" s="18"/>
+      <c r="F806" s="19"/>
+    </row>
+    <row r="807" ht="16.35" customHeight="1">
+      <c r="A807" s="9"/>
+      <c r="B807" s="15"/>
+      <c r="C807" s="18"/>
+      <c r="D807" s="17"/>
+      <c r="E807" s="18"/>
+      <c r="F807" s="19"/>
+    </row>
+    <row r="808" ht="16.35" customHeight="1">
+      <c r="A808" s="9"/>
+      <c r="B808" s="15"/>
+      <c r="C808" s="18"/>
+      <c r="D808" s="17"/>
+      <c r="E808" s="18"/>
+      <c r="F808" s="19"/>
+    </row>
+    <row r="809" ht="16.35" customHeight="1">
+      <c r="A809" s="9"/>
+      <c r="B809" s="15"/>
+      <c r="C809" s="18"/>
+      <c r="D809" s="17"/>
+      <c r="E809" s="18"/>
+      <c r="F809" s="19"/>
+    </row>
+    <row r="810" ht="16.35" customHeight="1">
+      <c r="A810" s="9"/>
+      <c r="B810" s="15"/>
+      <c r="C810" s="18"/>
+      <c r="D810" s="17"/>
+      <c r="E810" s="18"/>
+      <c r="F810" s="19"/>
+    </row>
+    <row r="811" ht="16.35" customHeight="1">
+      <c r="A811" s="9"/>
+      <c r="B811" s="15"/>
+      <c r="C811" s="18"/>
+      <c r="D811" s="17"/>
+      <c r="E811" s="18"/>
+      <c r="F811" s="19"/>
+    </row>
+    <row r="812" ht="16.35" customHeight="1">
+      <c r="A812" s="9"/>
+      <c r="B812" s="15"/>
+      <c r="C812" s="18"/>
+      <c r="D812" s="17"/>
+      <c r="E812" s="18"/>
+      <c r="F812" s="19"/>
+    </row>
+    <row r="813" ht="16.35" customHeight="1">
+      <c r="A813" s="9"/>
+      <c r="B813" s="15"/>
+      <c r="C813" s="18"/>
+      <c r="D813" s="17"/>
+      <c r="E813" s="18"/>
+      <c r="F813" s="19"/>
+    </row>
+    <row r="814" ht="16.35" customHeight="1">
+      <c r="A814" s="9"/>
+      <c r="B814" s="15"/>
+      <c r="C814" s="18"/>
+      <c r="D814" s="17"/>
+      <c r="E814" s="18"/>
+      <c r="F814" s="19"/>
+    </row>
+    <row r="815" ht="16.35" customHeight="1">
+      <c r="A815" s="9"/>
+      <c r="B815" s="15"/>
+      <c r="C815" s="18"/>
+      <c r="D815" s="17"/>
+      <c r="E815" s="18"/>
+      <c r="F815" s="19"/>
+    </row>
+    <row r="816" ht="16.35" customHeight="1">
+      <c r="A816" s="9"/>
+      <c r="B816" s="15"/>
+      <c r="C816" s="18"/>
+      <c r="D816" s="17"/>
+      <c r="E816" s="18"/>
+      <c r="F816" s="19"/>
+    </row>
+    <row r="817" ht="16.35" customHeight="1">
+      <c r="A817" s="9"/>
+      <c r="B817" s="15"/>
+      <c r="C817" s="18"/>
+      <c r="D817" s="17"/>
+      <c r="E817" s="18"/>
+      <c r="F817" s="19"/>
+    </row>
+    <row r="818" ht="16.35" customHeight="1">
+      <c r="A818" s="9"/>
+      <c r="B818" s="15"/>
+      <c r="C818" s="18"/>
+      <c r="D818" s="17"/>
+      <c r="E818" s="18"/>
+      <c r="F818" s="19"/>
+    </row>
+    <row r="819" ht="16.35" customHeight="1">
+      <c r="A819" s="9"/>
+      <c r="B819" s="15"/>
+      <c r="C819" s="18"/>
+      <c r="D819" s="17"/>
+      <c r="E819" s="18"/>
+      <c r="F819" s="19"/>
+    </row>
+    <row r="820" ht="16.35" customHeight="1">
+      <c r="A820" s="9"/>
+      <c r="B820" s="15"/>
+      <c r="C820" s="18"/>
+      <c r="D820" s="17"/>
+      <c r="E820" s="18"/>
+      <c r="F820" s="19"/>
+    </row>
+    <row r="821" ht="16.35" customHeight="1">
+      <c r="A821" s="9"/>
+      <c r="B821" s="15"/>
+      <c r="C821" s="18"/>
+      <c r="D821" s="17"/>
+      <c r="E821" s="18"/>
+      <c r="F821" s="19"/>
+    </row>
+    <row r="822" ht="16.35" customHeight="1">
+      <c r="A822" s="9"/>
+      <c r="B822" s="15"/>
+      <c r="C822" s="18"/>
+      <c r="D822" s="17"/>
+      <c r="E822" s="18"/>
+      <c r="F822" s="19"/>
+    </row>
+    <row r="823" ht="16.35" customHeight="1">
+      <c r="A823" s="9"/>
+      <c r="B823" s="15"/>
+      <c r="C823" s="18"/>
+      <c r="D823" s="17"/>
+      <c r="E823" s="18"/>
+      <c r="F823" s="19"/>
+    </row>
+    <row r="824" ht="16.35" customHeight="1">
+      <c r="A824" s="9"/>
+      <c r="B824" s="15"/>
+      <c r="C824" s="18"/>
+      <c r="D824" s="17"/>
+      <c r="E824" s="18"/>
+      <c r="F824" s="19"/>
+    </row>
+    <row r="825" ht="16.35" customHeight="1">
+      <c r="A825" s="9"/>
+      <c r="B825" s="15"/>
+      <c r="C825" s="18"/>
+      <c r="D825" s="17"/>
+      <c r="E825" s="18"/>
+      <c r="F825" s="19"/>
+    </row>
+    <row r="826" ht="16.35" customHeight="1">
+      <c r="A826" s="9"/>
+      <c r="B826" s="15"/>
+      <c r="C826" s="18"/>
+      <c r="D826" s="17"/>
+      <c r="E826" s="18"/>
+      <c r="F826" s="19"/>
+    </row>
+    <row r="827" ht="16.35" customHeight="1">
+      <c r="A827" s="9"/>
+      <c r="B827" s="15"/>
+      <c r="C827" s="18"/>
+      <c r="D827" s="17"/>
+      <c r="E827" s="18"/>
+      <c r="F827" s="19"/>
+    </row>
+    <row r="828" ht="16.35" customHeight="1">
+      <c r="A828" s="9"/>
+      <c r="B828" s="15"/>
+      <c r="C828" s="18"/>
+      <c r="D828" s="17"/>
+      <c r="E828" s="18"/>
+      <c r="F828" s="19"/>
+    </row>
+    <row r="829" ht="16.35" customHeight="1">
+      <c r="A829" s="9"/>
+      <c r="B829" s="15"/>
+      <c r="C829" s="18"/>
+      <c r="D829" s="17"/>
+      <c r="E829" s="18"/>
+      <c r="F829" s="19"/>
+    </row>
+    <row r="830" ht="16.35" customHeight="1">
+      <c r="A830" s="9"/>
+      <c r="B830" s="15"/>
+      <c r="C830" s="18"/>
+      <c r="D830" s="17"/>
+      <c r="E830" s="18"/>
+      <c r="F830" s="19"/>
+    </row>
+    <row r="831" ht="16.35" customHeight="1">
+      <c r="A831" s="9"/>
+      <c r="B831" s="15"/>
+      <c r="C831" s="18"/>
+      <c r="D831" s="17"/>
+      <c r="E831" s="18"/>
+      <c r="F831" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
